--- a/Lab5/Gerudo Valley/Music.xlsx
+++ b/Lab5/Gerudo Valley/Music.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="14370"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="19440" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="46">
   <si>
     <t>g</t>
   </si>
@@ -148,6 +148,12 @@
   </si>
   <si>
     <t>D#</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F2#</t>
   </si>
 </sst>
 </file>
@@ -486,15 +492,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J230"/>
+  <dimension ref="A1:L238"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -505,23 +515,34 @@
         <v>1</v>
       </c>
       <c r="D1">
-        <f>24000000*B1*1/32/30000</f>
-        <v>50</v>
+        <f>ROUND(VLOOKUP(A1,J:K,2,0),0)</f>
+        <v>0</v>
       </c>
       <c r="E1">
-        <f>ROUND(VLOOKUP(A1,H:J,3,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H1">
+        <f>24000000*B1*0.125/60000</f>
+        <v>100</v>
+      </c>
+      <c r="F1" t="str">
+        <f>"{"&amp;IF(D1&gt;0,"FREQUENCY/","")&amp;D1&amp;","&amp;E1&amp;"},"</f>
+        <v>{0,100},</v>
+      </c>
+      <c r="G1">
+        <f>VLOOKUP(A1,J:L,3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I1">
         <v>0</v>
       </c>
       <c r="J1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -531,27 +552,38 @@
         <v/>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D65" si="0">24000000*B2*1/32/30000</f>
-        <v>25</v>
+        <f>ROUND(VLOOKUP(A2,J:K,2,0),0)</f>
+        <v>208</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E65" si="1">ROUND(VLOOKUP(A2,H:J,3,0),0)</f>
-        <v>208</v>
-      </c>
-      <c r="H2" t="s">
-        <v>0</v>
+        <f t="shared" ref="E2:E65" si="0">24000000*B2*0.125/60000</f>
+        <v>50</v>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F65" si="1">"{"&amp;IF(D2&gt;0,"FREQUENCY/","")&amp;D2&amp;","&amp;E2&amp;"},"</f>
+        <v>{FREQUENCY/208,50},</v>
+      </c>
+      <c r="G2" t="str">
+        <f>VLOOKUP(A2,J:L,3,0)</f>
+        <v>A1#</v>
       </c>
       <c r="I2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
         <v>31</v>
       </c>
-      <c r="J2">
-        <f t="shared" ref="J2:J14" si="2">J3/POWER(2,1/12)</f>
+      <c r="K2">
+        <f t="shared" ref="K2:K14" si="2">K3/POWER(2,1/12)</f>
         <v>195.99771799087449</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -561,27 +593,38 @@
         <v/>
       </c>
       <c r="D3">
+        <f>ROUND(VLOOKUP(A3,J:K,2,0),0)</f>
+        <v>294</v>
+      </c>
+      <c r="E3">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3" t="str">
         <f t="shared" si="1"/>
-        <v>294</v>
-      </c>
-      <c r="H3" t="s">
+        <v>{FREQUENCY/294,100},</v>
+      </c>
+      <c r="G3" t="str">
+        <f>VLOOKUP(A3,J:L,3,0)</f>
+        <v>E1</v>
+      </c>
+      <c r="I3" t="s">
         <v>3</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>19</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <f t="shared" si="2"/>
         <v>207.65234878997242</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -591,27 +634,38 @@
         <v/>
       </c>
       <c r="D4">
+        <f>ROUND(VLOOKUP(A4,J:K,2,0),0)</f>
+        <v>370</v>
+      </c>
+      <c r="E4">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4" t="str">
         <f t="shared" si="1"/>
-        <v>370</v>
-      </c>
-      <c r="H4" t="s">
+        <v>{FREQUENCY/370,100},</v>
+      </c>
+      <c r="G4" t="str">
+        <f>VLOOKUP(A4,J:L,3,0)</f>
+        <v>G2#</v>
+      </c>
+      <c r="I4" t="s">
         <v>5</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>21</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <f t="shared" si="2"/>
         <v>219.99999999999986</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -621,27 +675,38 @@
         <v/>
       </c>
       <c r="D5">
+        <f>ROUND(VLOOKUP(A5,J:K,2,0),0)</f>
+        <v>440</v>
+      </c>
+      <c r="E5">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5" t="str">
         <f t="shared" si="1"/>
-        <v>220</v>
-      </c>
-      <c r="H5" t="s">
+        <v>{FREQUENCY/440,100},</v>
+      </c>
+      <c r="G5" t="str">
+        <f>VLOOKUP(A5,J:L,3,0)</f>
+        <v>B2</v>
+      </c>
+      <c r="I5" t="s">
         <v>15</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>22</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <f t="shared" si="2"/>
         <v>233.08188075904482</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -651,27 +716,38 @@
         <v/>
       </c>
       <c r="D6">
+        <f>ROUND(VLOOKUP(A6,J:K,2,0),0)</f>
+        <v>349</v>
+      </c>
+      <c r="E6">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="E6">
+        <v>50</v>
+      </c>
+      <c r="F6" t="str">
         <f t="shared" si="1"/>
-        <v>349</v>
-      </c>
-      <c r="H6" t="s">
+        <v>{FREQUENCY/349,50},</v>
+      </c>
+      <c r="G6" t="str">
+        <f>VLOOKUP(A6,J:L,3,0)</f>
+        <v>G2</v>
+      </c>
+      <c r="I6" t="s">
         <v>6</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>28</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <f t="shared" si="2"/>
         <v>246.94165062806192</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -681,27 +757,38 @@
         <v/>
       </c>
       <c r="D7">
+        <f>ROUND(VLOOKUP(A7,J:K,2,0),0)</f>
+        <v>415</v>
+      </c>
+      <c r="E7">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="E7">
+        <v>50</v>
+      </c>
+      <c r="F7" t="str">
         <f t="shared" si="1"/>
-        <v>208</v>
-      </c>
-      <c r="H7" t="s">
+        <v>{FREQUENCY/415,50},</v>
+      </c>
+      <c r="G7" t="str">
+        <f>VLOOKUP(A7,J:L,3,0)</f>
+        <v>A2#</v>
+      </c>
+      <c r="I7" t="s">
         <v>39</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>32</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <f t="shared" si="2"/>
         <v>261.62556530059851</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -711,27 +798,38 @@
         <v/>
       </c>
       <c r="D8">
+        <f>ROUND(VLOOKUP(A8,J:K,2,0),0)</f>
+        <v>494</v>
+      </c>
+      <c r="E8">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="E8">
+        <v>50</v>
+      </c>
+      <c r="F8" t="str">
         <f t="shared" si="1"/>
-        <v>247</v>
-      </c>
-      <c r="H8" t="s">
+        <v>{FREQUENCY/494,50},</v>
+      </c>
+      <c r="G8" t="str">
+        <f>VLOOKUP(A8,J:L,3,0)</f>
+        <v>C2#</v>
+      </c>
+      <c r="I8" t="s">
         <v>7</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>16</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <f t="shared" si="2"/>
         <v>277.18263097687196</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B9">
         <v>12</v>
@@ -741,25 +839,36 @@
         <v/>
       </c>
       <c r="D9">
+        <f>ROUND(VLOOKUP(A9,J:K,2,0),0)</f>
+        <v>554</v>
+      </c>
+      <c r="E9">
         <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-      <c r="E9">
+        <v>600</v>
+      </c>
+      <c r="F9" t="str">
         <f t="shared" si="1"/>
-        <v>277</v>
-      </c>
-      <c r="H9" t="s">
-        <v>1</v>
+        <v>{FREQUENCY/554,600},</v>
+      </c>
+      <c r="G9" t="str">
+        <f>VLOOKUP(A9,J:L,3,0)</f>
+        <v>D2#</v>
       </c>
       <c r="I9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
         <v>26</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <f t="shared" si="2"/>
         <v>293.66476791740746</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -771,25 +880,36 @@
         <v/>
       </c>
       <c r="D10">
+        <f>ROUND(VLOOKUP(A10,J:K,2,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E10">
         <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="E10">
+        <v>400</v>
+      </c>
+      <c r="F10" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H10" t="s">
+        <v>{0,400},</v>
+      </c>
+      <c r="G10">
+        <f>VLOOKUP(A10,J:L,3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
         <v>40</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>35</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <f t="shared" si="2"/>
         <v>311.12698372208081</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -801,25 +921,36 @@
         <v>3</v>
       </c>
       <c r="D11">
+        <f>ROUND(VLOOKUP(A11,J:K,2,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E11">
         <f t="shared" si="0"/>
-        <v>400</v>
-      </c>
-      <c r="E11">
+        <v>800</v>
+      </c>
+      <c r="F11" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H11" t="s">
+        <v>{0,800},</v>
+      </c>
+      <c r="G11">
+        <f>VLOOKUP(A11,J:L,3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
         <v>12</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>30</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <f t="shared" si="2"/>
         <v>329.62755691286986</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -831,25 +962,36 @@
         <v>4</v>
       </c>
       <c r="D12">
+        <f>ROUND(VLOOKUP(A12,J:K,2,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E12">
         <f t="shared" si="0"/>
-        <v>400</v>
-      </c>
-      <c r="E12">
+        <v>800</v>
+      </c>
+      <c r="F12" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H12" t="s">
+        <v>{0,800},</v>
+      </c>
+      <c r="G12">
+        <f>VLOOKUP(A12,J:L,3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
         <v>2</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>24</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <f t="shared" si="2"/>
         <v>349.22823143300383</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -861,25 +1003,36 @@
         <v>5</v>
       </c>
       <c r="D13">
+        <f>ROUND(VLOOKUP(A13,J:K,2,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E13">
         <f t="shared" si="0"/>
-        <v>400</v>
-      </c>
-      <c r="E13">
+        <v>800</v>
+      </c>
+      <c r="F13" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H13" t="s">
+        <v>{0,800},</v>
+      </c>
+      <c r="G13">
+        <f>VLOOKUP(A13,J:L,3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
         <v>4</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>23</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <f t="shared" si="2"/>
         <v>369.99442271163434</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -891,25 +1044,36 @@
         <v>6</v>
       </c>
       <c r="D14">
+        <f>ROUND(VLOOKUP(A14,J:K,2,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E14">
         <f t="shared" si="0"/>
-        <v>400</v>
-      </c>
-      <c r="E14">
+        <v>800</v>
+      </c>
+      <c r="F14" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H14" t="s">
+        <v>{0,800},</v>
+      </c>
+      <c r="G14">
+        <f>VLOOKUP(A14,J:L,3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
         <v>38</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>33</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <f t="shared" si="2"/>
         <v>391.99543598174927</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -921,25 +1085,36 @@
         <v>7</v>
       </c>
       <c r="D15">
+        <f>ROUND(VLOOKUP(A15,J:K,2,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E15">
         <f t="shared" si="0"/>
-        <v>400</v>
-      </c>
-      <c r="E15">
+        <v>800</v>
+      </c>
+      <c r="F15" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H15" t="s">
+        <v>{0,800},</v>
+      </c>
+      <c r="G15">
+        <f>VLOOKUP(A15,J:L,3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
         <v>9</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>18</v>
       </c>
-      <c r="J15">
-        <f>J16/POWER(2,1/12)</f>
+      <c r="K15">
+        <f>K16/POWER(2,1/12)</f>
         <v>415.30469757994513</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
@@ -951,26 +1126,37 @@
         <v>8</v>
       </c>
       <c r="D16">
+        <f>ROUND(VLOOKUP(A16,J:K,2,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E16">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="E16">
+        <v>50</v>
+      </c>
+      <c r="F16" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H16" t="s">
+        <v>{0,50},</v>
+      </c>
+      <c r="G16">
+        <f>VLOOKUP(A16,J:L,3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
         <v>8</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>20</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>440</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -980,27 +1166,38 @@
         <v/>
       </c>
       <c r="D17">
+        <f>ROUND(VLOOKUP(A17,J:K,2,0),0)</f>
+        <v>277</v>
+      </c>
+      <c r="E17">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="E17">
+        <v>50</v>
+      </c>
+      <c r="F17" t="str">
         <f t="shared" si="1"/>
-        <v>277</v>
-      </c>
-      <c r="H17" t="s">
+        <v>{FREQUENCY/277,50},</v>
+      </c>
+      <c r="G17" t="str">
+        <f>VLOOKUP(A17,J:L,3,0)</f>
+        <v>D1#</v>
+      </c>
+      <c r="I17" t="s">
         <v>41</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>36</v>
       </c>
-      <c r="J17">
-        <f>J16*POWER(2,1/12)</f>
+      <c r="K17">
+        <f>K16*POWER(2,1/12)</f>
         <v>466.16376151808993</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -1010,27 +1207,38 @@
         <v/>
       </c>
       <c r="D18">
+        <f>ROUND(VLOOKUP(A18,J:K,2,0),0)</f>
+        <v>370</v>
+      </c>
+      <c r="E18">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="E18">
+        <v>50</v>
+      </c>
+      <c r="F18" t="str">
         <f t="shared" si="1"/>
-        <v>370</v>
-      </c>
-      <c r="H18" t="s">
+        <v>{FREQUENCY/370,50},</v>
+      </c>
+      <c r="G18" t="str">
+        <f>VLOOKUP(A18,J:L,3,0)</f>
+        <v>G2#</v>
+      </c>
+      <c r="I18" t="s">
         <v>10</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>27</v>
       </c>
-      <c r="J18">
-        <f t="shared" ref="J18:J23" si="3">J17*POWER(2,1/12)</f>
+      <c r="K18">
+        <f t="shared" ref="K18:K23" si="3">K17*POWER(2,1/12)</f>
         <v>493.88330125612413</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -1040,27 +1248,38 @@
         <v/>
       </c>
       <c r="D19">
+        <f>ROUND(VLOOKUP(A19,J:K,2,0),0)</f>
+        <v>415</v>
+      </c>
+      <c r="E19">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="E19">
+        <v>50</v>
+      </c>
+      <c r="F19" t="str">
         <f t="shared" si="1"/>
-        <v>208</v>
-      </c>
-      <c r="H19" t="s">
+        <v>{FREQUENCY/415,50},</v>
+      </c>
+      <c r="G19" t="str">
+        <f>VLOOKUP(A19,J:L,3,0)</f>
+        <v>A2#</v>
+      </c>
+      <c r="I19" t="s">
         <v>42</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>34</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <f t="shared" si="3"/>
         <v>523.25113060119736</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -1070,27 +1289,38 @@
         <v/>
       </c>
       <c r="D20">
+        <f>ROUND(VLOOKUP(A20,J:K,2,0),0)</f>
+        <v>440</v>
+      </c>
+      <c r="E20">
         <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="E20">
+        <v>150</v>
+      </c>
+      <c r="F20" t="str">
         <f t="shared" si="1"/>
-        <v>220</v>
-      </c>
-      <c r="H20" t="s">
+        <v>{FREQUENCY/440,150},</v>
+      </c>
+      <c r="G20" t="str">
+        <f>VLOOKUP(A20,J:L,3,0)</f>
+        <v>B2</v>
+      </c>
+      <c r="I20" t="s">
         <v>11</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>17</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <f t="shared" si="3"/>
         <v>554.36526195374427</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -1100,27 +1330,38 @@
         <v/>
       </c>
       <c r="D21">
+        <f>ROUND(VLOOKUP(A21,J:K,2,0),0)</f>
+        <v>277</v>
+      </c>
+      <c r="E21">
         <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="1"/>
+        <v>{FREQUENCY/277,50},</v>
+      </c>
+      <c r="G21" t="str">
+        <f>VLOOKUP(A21,J:L,3,0)</f>
+        <v>D1#</v>
+      </c>
+      <c r="I21" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" t="s">
         <v>25</v>
       </c>
-      <c r="E21">
-        <f t="shared" si="1"/>
-        <v>277</v>
-      </c>
-      <c r="H21" t="s">
-        <v>13</v>
-      </c>
-      <c r="I21" t="s">
-        <v>25</v>
-      </c>
-      <c r="J21">
+      <c r="K21">
         <f t="shared" si="3"/>
         <v>587.32953583481526</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -1130,27 +1371,38 @@
         <v/>
       </c>
       <c r="D22">
+        <f>ROUND(VLOOKUP(A22,J:K,2,0),0)</f>
+        <v>370</v>
+      </c>
+      <c r="E22">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="E22">
+        <v>50</v>
+      </c>
+      <c r="F22" t="str">
         <f t="shared" si="1"/>
-        <v>370</v>
-      </c>
-      <c r="H22" t="s">
+        <v>{FREQUENCY/370,50},</v>
+      </c>
+      <c r="G22" t="str">
+        <f>VLOOKUP(A22,J:L,3,0)</f>
+        <v>G2#</v>
+      </c>
+      <c r="I22" t="s">
         <v>43</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>37</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <f t="shared" si="3"/>
         <v>622.25396744416196</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -1160,27 +1412,38 @@
         <v/>
       </c>
       <c r="D23">
+        <f>ROUND(VLOOKUP(A23,J:K,2,0),0)</f>
+        <v>415</v>
+      </c>
+      <c r="E23">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="E23">
+        <v>50</v>
+      </c>
+      <c r="F23" t="str">
         <f t="shared" si="1"/>
-        <v>208</v>
-      </c>
-      <c r="H23" t="s">
+        <v>{FREQUENCY/415,50},</v>
+      </c>
+      <c r="G23" t="str">
+        <f>VLOOKUP(A23,J:L,3,0)</f>
+        <v>A2#</v>
+      </c>
+      <c r="I23" t="s">
         <v>14</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>29</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <f t="shared" si="3"/>
         <v>659.25511382574007</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B24">
         <v>6</v>
@@ -1190,15 +1453,23 @@
         <v/>
       </c>
       <c r="D24">
+        <f>ROUND(VLOOKUP(A24,J:K,2,0),0)</f>
+        <v>440</v>
+      </c>
+      <c r="E24">
         <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="E24">
+        <v>300</v>
+      </c>
+      <c r="F24" t="str">
         <f t="shared" si="1"/>
-        <v>220</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>{FREQUENCY/440,300},</v>
+      </c>
+      <c r="G24" t="str">
+        <f>VLOOKUP(A24,J:L,3,0)</f>
+        <v>B2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0</v>
       </c>
@@ -1210,17 +1481,25 @@
         <v>9</v>
       </c>
       <c r="D25">
+        <f>ROUND(VLOOKUP(A25,J:K,2,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E25">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="E25">
+        <v>50</v>
+      </c>
+      <c r="F25" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <v>{0,50},</v>
+      </c>
+      <c r="G25">
+        <f>VLOOKUP(A25,J:L,3,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -1230,17 +1509,25 @@
         <v/>
       </c>
       <c r="D26">
+        <f>ROUND(VLOOKUP(A26,J:K,2,0),0)</f>
+        <v>294</v>
+      </c>
+      <c r="E26">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="E26">
+        <v>50</v>
+      </c>
+      <c r="F26" t="str">
         <f t="shared" si="1"/>
-        <v>294</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+        <v>{FREQUENCY/294,50},</v>
+      </c>
+      <c r="G26" t="str">
+        <f>VLOOKUP(A26,J:L,3,0)</f>
+        <v>E1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -1250,17 +1537,25 @@
         <v/>
       </c>
       <c r="D27">
+        <f>ROUND(VLOOKUP(A27,J:K,2,0),0)</f>
+        <v>370</v>
+      </c>
+      <c r="E27">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="E27">
+        <v>50</v>
+      </c>
+      <c r="F27" t="str">
         <f t="shared" si="1"/>
-        <v>370</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+        <v>{FREQUENCY/370,50},</v>
+      </c>
+      <c r="G27" t="str">
+        <f>VLOOKUP(A27,J:L,3,0)</f>
+        <v>G2#</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -1270,17 +1565,25 @@
         <v/>
       </c>
       <c r="D28">
+        <f>ROUND(VLOOKUP(A28,J:K,2,0),0)</f>
+        <v>415</v>
+      </c>
+      <c r="E28">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="E28">
+        <v>50</v>
+      </c>
+      <c r="F28" t="str">
         <f t="shared" si="1"/>
-        <v>208</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+        <v>{FREQUENCY/415,50},</v>
+      </c>
+      <c r="G28" t="str">
+        <f>VLOOKUP(A28,J:L,3,0)</f>
+        <v>A2#</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B29">
         <v>3</v>
@@ -1290,17 +1593,25 @@
         <v/>
       </c>
       <c r="D29">
+        <f>ROUND(VLOOKUP(A29,J:K,2,0),0)</f>
+        <v>440</v>
+      </c>
+      <c r="E29">
         <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="E29">
+        <v>150</v>
+      </c>
+      <c r="F29" t="str">
         <f t="shared" si="1"/>
-        <v>220</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+        <v>{FREQUENCY/440,150},</v>
+      </c>
+      <c r="G29" t="str">
+        <f>VLOOKUP(A29,J:L,3,0)</f>
+        <v>B2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -1310,17 +1621,25 @@
         <v/>
       </c>
       <c r="D30">
+        <f>ROUND(VLOOKUP(A30,J:K,2,0),0)</f>
+        <v>294</v>
+      </c>
+      <c r="E30">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="E30">
+        <v>50</v>
+      </c>
+      <c r="F30" t="str">
         <f t="shared" si="1"/>
-        <v>294</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+        <v>{FREQUENCY/294,50},</v>
+      </c>
+      <c r="G30" t="str">
+        <f>VLOOKUP(A30,J:L,3,0)</f>
+        <v>E1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -1330,17 +1649,25 @@
         <v/>
       </c>
       <c r="D31">
+        <f>ROUND(VLOOKUP(A31,J:K,2,0),0)</f>
+        <v>370</v>
+      </c>
+      <c r="E31">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="E31">
+        <v>50</v>
+      </c>
+      <c r="F31" t="str">
         <f t="shared" si="1"/>
-        <v>370</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+        <v>{FREQUENCY/370,50},</v>
+      </c>
+      <c r="G31" t="str">
+        <f>VLOOKUP(A31,J:L,3,0)</f>
+        <v>G2#</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -1350,17 +1677,25 @@
         <v/>
       </c>
       <c r="D32">
+        <f>ROUND(VLOOKUP(A32,J:K,2,0),0)</f>
+        <v>415</v>
+      </c>
+      <c r="E32">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="E32">
+        <v>50</v>
+      </c>
+      <c r="F32" t="str">
         <f t="shared" si="1"/>
-        <v>208</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{FREQUENCY/415,50},</v>
+      </c>
+      <c r="G32" t="str">
+        <f>VLOOKUP(A32,J:L,3,0)</f>
+        <v>A2#</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B33">
         <v>6</v>
@@ -1370,15 +1705,23 @@
         <v/>
       </c>
       <c r="D33">
+        <f>ROUND(VLOOKUP(A33,J:K,2,0),0)</f>
+        <v>440</v>
+      </c>
+      <c r="E33">
         <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="E33">
+        <v>300</v>
+      </c>
+      <c r="F33" t="str">
         <f t="shared" si="1"/>
-        <v>220</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{FREQUENCY/440,300},</v>
+      </c>
+      <c r="G33" t="str">
+        <f>VLOOKUP(A33,J:L,3,0)</f>
+        <v>B2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>0</v>
       </c>
@@ -1390,17 +1733,25 @@
         <v>10</v>
       </c>
       <c r="D34">
+        <f>ROUND(VLOOKUP(A34,J:K,2,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E34">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="E34">
+        <v>50</v>
+      </c>
+      <c r="F34" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{0,50},</v>
+      </c>
+      <c r="G34">
+        <f>VLOOKUP(A34,J:L,3,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -1410,17 +1761,25 @@
         <v/>
       </c>
       <c r="D35">
+        <f>ROUND(VLOOKUP(A35,J:K,2,0),0)</f>
+        <v>247</v>
+      </c>
+      <c r="E35">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="E35">
+        <v>50</v>
+      </c>
+      <c r="F35" t="str">
         <f t="shared" si="1"/>
-        <v>247</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{FREQUENCY/247,50},</v>
+      </c>
+      <c r="G35" t="str">
+        <f>VLOOKUP(A35,J:L,3,0)</f>
+        <v>C1#</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -1430,17 +1789,25 @@
         <v/>
       </c>
       <c r="D36">
+        <f>ROUND(VLOOKUP(A36,J:K,2,0),0)</f>
+        <v>330</v>
+      </c>
+      <c r="E36">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="E36">
+        <v>50</v>
+      </c>
+      <c r="F36" t="str">
         <f t="shared" si="1"/>
-        <v>330</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{FREQUENCY/330,50},</v>
+      </c>
+      <c r="G36" t="str">
+        <f>VLOOKUP(A36,J:L,3,0)</f>
+        <v>F1#</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -1450,17 +1817,25 @@
         <v/>
       </c>
       <c r="D37">
+        <f>ROUND(VLOOKUP(A37,J:K,2,0),0)</f>
+        <v>370</v>
+      </c>
+      <c r="E37">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="E37">
+        <v>50</v>
+      </c>
+      <c r="F37" t="str">
         <f t="shared" si="1"/>
-        <v>370</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{FREQUENCY/370,50},</v>
+      </c>
+      <c r="G37" t="str">
+        <f>VLOOKUP(A37,J:L,3,0)</f>
+        <v>G2#</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B38">
         <v>3</v>
@@ -1470,17 +1845,25 @@
         <v/>
       </c>
       <c r="D38">
+        <f>ROUND(VLOOKUP(A38,J:K,2,0),0)</f>
+        <v>415</v>
+      </c>
+      <c r="E38">
         <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="E38">
+        <v>150</v>
+      </c>
+      <c r="F38" t="str">
         <f t="shared" si="1"/>
-        <v>208</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{FREQUENCY/415,150},</v>
+      </c>
+      <c r="G38" t="str">
+        <f>VLOOKUP(A38,J:L,3,0)</f>
+        <v>A2#</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -1490,17 +1873,25 @@
         <v/>
       </c>
       <c r="D39">
+        <f>ROUND(VLOOKUP(A39,J:K,2,0),0)</f>
+        <v>247</v>
+      </c>
+      <c r="E39">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="E39">
+        <v>50</v>
+      </c>
+      <c r="F39" t="str">
         <f t="shared" si="1"/>
-        <v>247</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{FREQUENCY/247,50},</v>
+      </c>
+      <c r="G39" t="str">
+        <f>VLOOKUP(A39,J:L,3,0)</f>
+        <v>C1#</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -1510,17 +1901,25 @@
         <v/>
       </c>
       <c r="D40">
+        <f>ROUND(VLOOKUP(A40,J:K,2,0),0)</f>
+        <v>330</v>
+      </c>
+      <c r="E40">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="E40">
+        <v>50</v>
+      </c>
+      <c r="F40" t="str">
         <f t="shared" si="1"/>
-        <v>330</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{FREQUENCY/330,50},</v>
+      </c>
+      <c r="G40" t="str">
+        <f>VLOOKUP(A40,J:L,3,0)</f>
+        <v>F1#</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -1530,17 +1929,25 @@
         <v/>
       </c>
       <c r="D41">
+        <f>ROUND(VLOOKUP(A41,J:K,2,0),0)</f>
+        <v>370</v>
+      </c>
+      <c r="E41">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="E41">
+        <v>50</v>
+      </c>
+      <c r="F41" t="str">
         <f t="shared" si="1"/>
-        <v>370</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{FREQUENCY/370,50},</v>
+      </c>
+      <c r="G41" t="str">
+        <f>VLOOKUP(A41,J:L,3,0)</f>
+        <v>G2#</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B42">
         <v>6</v>
@@ -1550,15 +1957,23 @@
         <v/>
       </c>
       <c r="D42">
+        <f>ROUND(VLOOKUP(A42,J:K,2,0),0)</f>
+        <v>415</v>
+      </c>
+      <c r="E42">
         <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="E42">
+        <v>300</v>
+      </c>
+      <c r="F42" t="str">
         <f t="shared" si="1"/>
-        <v>208</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{FREQUENCY/415,300},</v>
+      </c>
+      <c r="G42" t="str">
+        <f>VLOOKUP(A42,J:L,3,0)</f>
+        <v>A2#</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>0</v>
       </c>
@@ -1570,17 +1985,25 @@
         <v>11</v>
       </c>
       <c r="D43">
+        <f>ROUND(VLOOKUP(A43,J:K,2,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E43">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="E43">
+        <v>50</v>
+      </c>
+      <c r="F43" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{0,50},</v>
+      </c>
+      <c r="G43">
+        <f>VLOOKUP(A43,J:L,3,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -1590,17 +2013,25 @@
         <v/>
       </c>
       <c r="D44">
+        <f>ROUND(VLOOKUP(A44,J:K,2,0),0)</f>
+        <v>370</v>
+      </c>
+      <c r="E44">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="E44">
+        <v>50</v>
+      </c>
+      <c r="F44" t="str">
         <f t="shared" si="1"/>
-        <v>370</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{FREQUENCY/370,50},</v>
+      </c>
+      <c r="G44" t="str">
+        <f>VLOOKUP(A44,J:L,3,0)</f>
+        <v>G2#</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -1610,17 +2041,25 @@
         <v/>
       </c>
       <c r="D45">
+        <f>ROUND(VLOOKUP(A45,J:K,2,0),0)</f>
+        <v>415</v>
+      </c>
+      <c r="E45">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="E45">
+        <v>50</v>
+      </c>
+      <c r="F45" t="str">
         <f t="shared" si="1"/>
-        <v>208</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{FREQUENCY/415,50},</v>
+      </c>
+      <c r="G45" t="str">
+        <f>VLOOKUP(A45,J:L,3,0)</f>
+        <v>A2#</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -1630,17 +2069,25 @@
         <v/>
       </c>
       <c r="D46">
+        <f>ROUND(VLOOKUP(A46,J:K,2,0),0)</f>
+        <v>370</v>
+      </c>
+      <c r="E46">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="E46">
+        <v>50</v>
+      </c>
+      <c r="F46" t="str">
         <f t="shared" si="1"/>
-        <v>370</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{FREQUENCY/370,50},</v>
+      </c>
+      <c r="G46" t="str">
+        <f>VLOOKUP(A46,J:L,3,0)</f>
+        <v>G2#</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B47">
         <v>12</v>
@@ -1650,15 +2097,23 @@
         <v/>
       </c>
       <c r="D47">
+        <f>ROUND(VLOOKUP(A47,J:K,2,0),0)</f>
+        <v>349</v>
+      </c>
+      <c r="E47">
         <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-      <c r="E47">
+        <v>600</v>
+      </c>
+      <c r="F47" t="str">
         <f t="shared" si="1"/>
-        <v>349</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{FREQUENCY/349,600},</v>
+      </c>
+      <c r="G47" t="str">
+        <f>VLOOKUP(A47,J:L,3,0)</f>
+        <v>G2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>0</v>
       </c>
@@ -1670,17 +2125,25 @@
         <v>12</v>
       </c>
       <c r="D48">
+        <f>ROUND(VLOOKUP(A48,J:K,2,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E48">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="E48">
+        <v>50</v>
+      </c>
+      <c r="F48" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{0,50},</v>
+      </c>
+      <c r="G48">
+        <f>VLOOKUP(A48,J:L,3,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -1690,17 +2153,25 @@
         <v/>
       </c>
       <c r="D49">
+        <f>ROUND(VLOOKUP(A49,J:K,2,0),0)</f>
+        <v>277</v>
+      </c>
+      <c r="E49">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="E49">
+        <v>50</v>
+      </c>
+      <c r="F49" t="str">
         <f t="shared" si="1"/>
-        <v>277</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{FREQUENCY/277,50},</v>
+      </c>
+      <c r="G49" t="str">
+        <f>VLOOKUP(A49,J:L,3,0)</f>
+        <v>D1#</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -1710,17 +2181,25 @@
         <v/>
       </c>
       <c r="D50">
+        <f>ROUND(VLOOKUP(A50,J:K,2,0),0)</f>
+        <v>370</v>
+      </c>
+      <c r="E50">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="E50">
+        <v>50</v>
+      </c>
+      <c r="F50" t="str">
         <f t="shared" si="1"/>
-        <v>370</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{FREQUENCY/370,50},</v>
+      </c>
+      <c r="G50" t="str">
+        <f>VLOOKUP(A50,J:L,3,0)</f>
+        <v>G2#</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -1730,17 +2209,25 @@
         <v/>
       </c>
       <c r="D51">
+        <f>ROUND(VLOOKUP(A51,J:K,2,0),0)</f>
+        <v>415</v>
+      </c>
+      <c r="E51">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="E51">
+        <v>50</v>
+      </c>
+      <c r="F51" t="str">
         <f t="shared" si="1"/>
-        <v>208</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{FREQUENCY/415,50},</v>
+      </c>
+      <c r="G51" t="str">
+        <f>VLOOKUP(A51,J:L,3,0)</f>
+        <v>A2#</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B52">
         <v>3</v>
@@ -1750,17 +2237,25 @@
         <v/>
       </c>
       <c r="D52">
+        <f>ROUND(VLOOKUP(A52,J:K,2,0),0)</f>
+        <v>440</v>
+      </c>
+      <c r="E52">
         <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="E52">
+        <v>150</v>
+      </c>
+      <c r="F52" t="str">
         <f t="shared" si="1"/>
-        <v>220</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{FREQUENCY/440,150},</v>
+      </c>
+      <c r="G52" t="str">
+        <f>VLOOKUP(A52,J:L,3,0)</f>
+        <v>B2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -1770,17 +2265,25 @@
         <v/>
       </c>
       <c r="D53">
+        <f>ROUND(VLOOKUP(A53,J:K,2,0),0)</f>
+        <v>277</v>
+      </c>
+      <c r="E53">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="E53">
+        <v>50</v>
+      </c>
+      <c r="F53" t="str">
         <f t="shared" si="1"/>
-        <v>277</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{FREQUENCY/277,50},</v>
+      </c>
+      <c r="G53" t="str">
+        <f>VLOOKUP(A53,J:L,3,0)</f>
+        <v>D1#</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -1790,17 +2293,25 @@
         <v/>
       </c>
       <c r="D54">
+        <f>ROUND(VLOOKUP(A54,J:K,2,0),0)</f>
+        <v>370</v>
+      </c>
+      <c r="E54">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="E54">
+        <v>50</v>
+      </c>
+      <c r="F54" t="str">
         <f t="shared" si="1"/>
-        <v>370</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{FREQUENCY/370,50},</v>
+      </c>
+      <c r="G54" t="str">
+        <f>VLOOKUP(A54,J:L,3,0)</f>
+        <v>G2#</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -1810,17 +2321,25 @@
         <v/>
       </c>
       <c r="D55">
+        <f>ROUND(VLOOKUP(A55,J:K,2,0),0)</f>
+        <v>415</v>
+      </c>
+      <c r="E55">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="E55">
+        <v>50</v>
+      </c>
+      <c r="F55" t="str">
         <f t="shared" si="1"/>
-        <v>208</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{FREQUENCY/415,50},</v>
+      </c>
+      <c r="G55" t="str">
+        <f>VLOOKUP(A55,J:L,3,0)</f>
+        <v>A2#</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B56">
         <v>6</v>
@@ -1830,15 +2349,23 @@
         <v/>
       </c>
       <c r="D56">
+        <f>ROUND(VLOOKUP(A56,J:K,2,0),0)</f>
+        <v>440</v>
+      </c>
+      <c r="E56">
         <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="E56">
+        <v>300</v>
+      </c>
+      <c r="F56" t="str">
         <f t="shared" si="1"/>
-        <v>220</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{FREQUENCY/440,300},</v>
+      </c>
+      <c r="G56" t="str">
+        <f>VLOOKUP(A56,J:L,3,0)</f>
+        <v>B2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>0</v>
       </c>
@@ -1850,17 +2377,25 @@
         <v>13</v>
       </c>
       <c r="D57">
+        <f>ROUND(VLOOKUP(A57,J:K,2,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E57">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="E57">
+        <v>50</v>
+      </c>
+      <c r="F57" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{0,50},</v>
+      </c>
+      <c r="G57">
+        <f>VLOOKUP(A57,J:L,3,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -1870,17 +2405,25 @@
         <v/>
       </c>
       <c r="D58">
+        <f>ROUND(VLOOKUP(A58,J:K,2,0),0)</f>
+        <v>294</v>
+      </c>
+      <c r="E58">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="E58">
+        <v>50</v>
+      </c>
+      <c r="F58" t="str">
         <f t="shared" si="1"/>
-        <v>294</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{FREQUENCY/294,50},</v>
+      </c>
+      <c r="G58" t="str">
+        <f>VLOOKUP(A58,J:L,3,0)</f>
+        <v>E1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -1890,17 +2433,25 @@
         <v/>
       </c>
       <c r="D59">
+        <f>ROUND(VLOOKUP(A59,J:K,2,0),0)</f>
+        <v>370</v>
+      </c>
+      <c r="E59">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="E59">
+        <v>50</v>
+      </c>
+      <c r="F59" t="str">
         <f t="shared" si="1"/>
-        <v>370</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{FREQUENCY/370,50},</v>
+      </c>
+      <c r="G59" t="str">
+        <f>VLOOKUP(A59,J:L,3,0)</f>
+        <v>G2#</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -1910,17 +2461,25 @@
         <v/>
       </c>
       <c r="D60">
+        <f>ROUND(VLOOKUP(A60,J:K,2,0),0)</f>
+        <v>415</v>
+      </c>
+      <c r="E60">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="E60">
+        <v>50</v>
+      </c>
+      <c r="F60" t="str">
         <f t="shared" si="1"/>
-        <v>208</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{FREQUENCY/415,50},</v>
+      </c>
+      <c r="G60" t="str">
+        <f>VLOOKUP(A60,J:L,3,0)</f>
+        <v>A2#</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B61">
         <v>3</v>
@@ -1930,17 +2489,25 @@
         <v/>
       </c>
       <c r="D61">
+        <f>ROUND(VLOOKUP(A61,J:K,2,0),0)</f>
+        <v>440</v>
+      </c>
+      <c r="E61">
         <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="E61">
+        <v>150</v>
+      </c>
+      <c r="F61" t="str">
         <f t="shared" si="1"/>
-        <v>220</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{FREQUENCY/440,150},</v>
+      </c>
+      <c r="G61" t="str">
+        <f>VLOOKUP(A61,J:L,3,0)</f>
+        <v>B2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -1950,17 +2517,25 @@
         <v/>
       </c>
       <c r="D62">
+        <f>ROUND(VLOOKUP(A62,J:K,2,0),0)</f>
+        <v>294</v>
+      </c>
+      <c r="E62">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="E62">
+        <v>50</v>
+      </c>
+      <c r="F62" t="str">
         <f t="shared" si="1"/>
-        <v>294</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{FREQUENCY/294,50},</v>
+      </c>
+      <c r="G62" t="str">
+        <f>VLOOKUP(A62,J:L,3,0)</f>
+        <v>E1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -1970,17 +2545,25 @@
         <v/>
       </c>
       <c r="D63">
+        <f>ROUND(VLOOKUP(A63,J:K,2,0),0)</f>
+        <v>370</v>
+      </c>
+      <c r="E63">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="E63">
+        <v>50</v>
+      </c>
+      <c r="F63" t="str">
         <f t="shared" si="1"/>
-        <v>370</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{FREQUENCY/370,50},</v>
+      </c>
+      <c r="G63" t="str">
+        <f>VLOOKUP(A63,J:L,3,0)</f>
+        <v>G2#</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -1990,17 +2573,25 @@
         <v/>
       </c>
       <c r="D64">
+        <f>ROUND(VLOOKUP(A64,J:K,2,0),0)</f>
+        <v>415</v>
+      </c>
+      <c r="E64">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="E64">
+        <v>50</v>
+      </c>
+      <c r="F64" t="str">
         <f t="shared" si="1"/>
-        <v>208</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{FREQUENCY/415,50},</v>
+      </c>
+      <c r="G64" t="str">
+        <f>VLOOKUP(A64,J:L,3,0)</f>
+        <v>A2#</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B65">
         <v>6</v>
@@ -2010,15 +2601,23 @@
         <v/>
       </c>
       <c r="D65">
+        <f>ROUND(VLOOKUP(A65,J:K,2,0),0)</f>
+        <v>440</v>
+      </c>
+      <c r="E65">
         <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="E65">
+        <v>300</v>
+      </c>
+      <c r="F65" t="str">
         <f t="shared" si="1"/>
-        <v>220</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{FREQUENCY/440,300},</v>
+      </c>
+      <c r="G65" t="str">
+        <f>VLOOKUP(A65,J:L,3,0)</f>
+        <v>B2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>0</v>
       </c>
@@ -2030,17 +2629,25 @@
         <v>14</v>
       </c>
       <c r="D66">
-        <f t="shared" ref="D66:D129" si="4">24000000*B66*1/32/30000</f>
-        <v>25</v>
+        <f>ROUND(VLOOKUP(A66,J:K,2,0),0)</f>
+        <v>0</v>
       </c>
       <c r="E66">
-        <f t="shared" ref="E66:E129" si="5">ROUND(VLOOKUP(A66,H:J,3,0),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" ref="E66:E135" si="4">24000000*B66*0.125/60000</f>
+        <v>50</v>
+      </c>
+      <c r="F66" t="str">
+        <f t="shared" ref="F66:F129" si="5">"{"&amp;IF(D66&gt;0,"FREQUENCY/","")&amp;D66&amp;","&amp;E66&amp;"},"</f>
+        <v>{0,50},</v>
+      </c>
+      <c r="G66">
+        <f>VLOOKUP(A66,J:L,3,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -2050,17 +2657,25 @@
         <v/>
       </c>
       <c r="D67">
+        <f>ROUND(VLOOKUP(A67,J:K,2,0),0)</f>
+        <v>247</v>
+      </c>
+      <c r="E67">
         <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
-      <c r="E67">
+        <v>50</v>
+      </c>
+      <c r="F67" t="str">
         <f t="shared" si="5"/>
-        <v>247</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{FREQUENCY/247,50},</v>
+      </c>
+      <c r="G67" t="str">
+        <f>VLOOKUP(A67,J:L,3,0)</f>
+        <v>C1#</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -2070,17 +2685,25 @@
         <v/>
       </c>
       <c r="D68">
+        <f>ROUND(VLOOKUP(A68,J:K,2,0),0)</f>
+        <v>330</v>
+      </c>
+      <c r="E68">
         <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
-      <c r="E68">
+        <v>50</v>
+      </c>
+      <c r="F68" t="str">
         <f t="shared" si="5"/>
-        <v>330</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{FREQUENCY/330,50},</v>
+      </c>
+      <c r="G68" t="str">
+        <f>VLOOKUP(A68,J:L,3,0)</f>
+        <v>F1#</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -2090,17 +2713,25 @@
         <v/>
       </c>
       <c r="D69">
+        <f>ROUND(VLOOKUP(A69,J:K,2,0),0)</f>
+        <v>370</v>
+      </c>
+      <c r="E69">
         <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
-      <c r="E69">
+        <v>50</v>
+      </c>
+      <c r="F69" t="str">
         <f t="shared" si="5"/>
-        <v>370</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{FREQUENCY/370,50},</v>
+      </c>
+      <c r="G69" t="str">
+        <f>VLOOKUP(A69,J:L,3,0)</f>
+        <v>G2#</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B70">
         <v>3</v>
@@ -2110,17 +2741,25 @@
         <v/>
       </c>
       <c r="D70">
+        <f>ROUND(VLOOKUP(A70,J:K,2,0),0)</f>
+        <v>415</v>
+      </c>
+      <c r="E70">
         <f t="shared" si="4"/>
-        <v>75</v>
-      </c>
-      <c r="E70">
+        <v>150</v>
+      </c>
+      <c r="F70" t="str">
         <f t="shared" si="5"/>
-        <v>208</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{FREQUENCY/415,150},</v>
+      </c>
+      <c r="G70" t="str">
+        <f>VLOOKUP(A70,J:L,3,0)</f>
+        <v>A2#</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -2130,17 +2769,25 @@
         <v/>
       </c>
       <c r="D71">
+        <f>ROUND(VLOOKUP(A71,J:K,2,0),0)</f>
+        <v>247</v>
+      </c>
+      <c r="E71">
         <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
-      <c r="E71">
+        <v>50</v>
+      </c>
+      <c r="F71" t="str">
         <f t="shared" si="5"/>
-        <v>247</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{FREQUENCY/247,50},</v>
+      </c>
+      <c r="G71" t="str">
+        <f>VLOOKUP(A71,J:L,3,0)</f>
+        <v>C1#</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -2150,17 +2797,25 @@
         <v/>
       </c>
       <c r="D72">
+        <f>ROUND(VLOOKUP(A72,J:K,2,0),0)</f>
+        <v>330</v>
+      </c>
+      <c r="E72">
         <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
-      <c r="E72">
+        <v>50</v>
+      </c>
+      <c r="F72" t="str">
         <f t="shared" si="5"/>
-        <v>330</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{FREQUENCY/330,50},</v>
+      </c>
+      <c r="G72" t="str">
+        <f>VLOOKUP(A72,J:L,3,0)</f>
+        <v>F1#</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -2170,17 +2825,25 @@
         <v/>
       </c>
       <c r="D73">
+        <f>ROUND(VLOOKUP(A73,J:K,2,0),0)</f>
+        <v>370</v>
+      </c>
+      <c r="E73">
         <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
-      <c r="E73">
+        <v>50</v>
+      </c>
+      <c r="F73" t="str">
         <f t="shared" si="5"/>
-        <v>370</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{FREQUENCY/370,50},</v>
+      </c>
+      <c r="G73" t="str">
+        <f>VLOOKUP(A73,J:L,3,0)</f>
+        <v>G2#</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B74">
         <v>6</v>
@@ -2190,15 +2853,23 @@
         <v/>
       </c>
       <c r="D74">
+        <f>ROUND(VLOOKUP(A74,J:K,2,0),0)</f>
+        <v>415</v>
+      </c>
+      <c r="E74">
         <f t="shared" si="4"/>
-        <v>150</v>
-      </c>
-      <c r="E74">
+        <v>300</v>
+      </c>
+      <c r="F74" t="str">
         <f t="shared" si="5"/>
-        <v>208</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{FREQUENCY/415,300},</v>
+      </c>
+      <c r="G74" t="str">
+        <f>VLOOKUP(A74,J:L,3,0)</f>
+        <v>A2#</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>0</v>
       </c>
@@ -2210,17 +2881,25 @@
         <v>15</v>
       </c>
       <c r="D75">
+        <f>ROUND(VLOOKUP(A75,J:K,2,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E75">
         <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
-      <c r="E75">
+        <v>50</v>
+      </c>
+      <c r="F75" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{0,50},</v>
+      </c>
+      <c r="G75">
+        <f>VLOOKUP(A75,J:L,3,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -2230,17 +2909,25 @@
         <v/>
       </c>
       <c r="D76">
+        <f>ROUND(VLOOKUP(A76,J:K,2,0),0)</f>
+        <v>440</v>
+      </c>
+      <c r="E76">
         <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
-      <c r="E76">
+        <v>50</v>
+      </c>
+      <c r="F76" t="str">
         <f t="shared" si="5"/>
-        <v>220</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{FREQUENCY/440,50},</v>
+      </c>
+      <c r="G76" t="str">
+        <f>VLOOKUP(A76,J:L,3,0)</f>
+        <v>B2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -2250,17 +2937,25 @@
         <v/>
       </c>
       <c r="D77">
+        <f>ROUND(VLOOKUP(A77,J:K,2,0),0)</f>
+        <v>494</v>
+      </c>
+      <c r="E77">
         <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
-      <c r="E77">
+        <v>50</v>
+      </c>
+      <c r="F77" t="str">
         <f t="shared" si="5"/>
-        <v>247</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{FREQUENCY/494,50},</v>
+      </c>
+      <c r="G77" t="str">
+        <f>VLOOKUP(A77,J:L,3,0)</f>
+        <v>C2#</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -2270,17 +2965,25 @@
         <v/>
       </c>
       <c r="D78">
+        <f>ROUND(VLOOKUP(A78,J:K,2,0),0)</f>
+        <v>440</v>
+      </c>
+      <c r="E78">
         <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
-      <c r="E78">
+        <v>50</v>
+      </c>
+      <c r="F78" t="str">
         <f t="shared" si="5"/>
-        <v>220</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{FREQUENCY/440,50},</v>
+      </c>
+      <c r="G78" t="str">
+        <f>VLOOKUP(A78,J:L,3,0)</f>
+        <v>B2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B79">
         <v>12</v>
@@ -2290,15 +2993,23 @@
         <v/>
       </c>
       <c r="D79">
+        <f>ROUND(VLOOKUP(A79,J:K,2,0),0)</f>
+        <v>415</v>
+      </c>
+      <c r="E79">
         <f t="shared" si="4"/>
-        <v>300</v>
-      </c>
-      <c r="E79">
+        <v>600</v>
+      </c>
+      <c r="F79" t="str">
         <f t="shared" si="5"/>
-        <v>208</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{FREQUENCY/415,600},</v>
+      </c>
+      <c r="G79" t="str">
+        <f>VLOOKUP(A79,J:L,3,0)</f>
+        <v>A2#</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>0</v>
       </c>
@@ -2310,17 +3021,25 @@
         <v>16</v>
       </c>
       <c r="D80">
+        <f>ROUND(VLOOKUP(A80,J:K,2,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E80">
         <f t="shared" si="4"/>
-        <v>50</v>
-      </c>
-      <c r="E80">
+        <v>100</v>
+      </c>
+      <c r="F80" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{0,100},</v>
+      </c>
+      <c r="G80">
+        <f>VLOOKUP(A80,J:L,3,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B81">
         <v>3</v>
@@ -2330,17 +3049,25 @@
         <v/>
       </c>
       <c r="D81">
+        <f>ROUND(VLOOKUP(A81,J:K,2,0),0)</f>
+        <v>277</v>
+      </c>
+      <c r="E81">
         <f t="shared" si="4"/>
-        <v>75</v>
-      </c>
-      <c r="E81">
+        <v>150</v>
+      </c>
+      <c r="F81" t="str">
         <f t="shared" si="5"/>
-        <v>277</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{FREQUENCY/277,150},</v>
+      </c>
+      <c r="G81" t="str">
+        <f>VLOOKUP(A81,J:L,3,0)</f>
+        <v>D1#</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B82">
         <v>3</v>
@@ -2350,17 +3077,25 @@
         <v/>
       </c>
       <c r="D82">
+        <f>ROUND(VLOOKUP(A82,J:K,2,0),0)</f>
+        <v>440</v>
+      </c>
+      <c r="E82">
         <f t="shared" si="4"/>
-        <v>75</v>
-      </c>
-      <c r="E82">
+        <v>150</v>
+      </c>
+      <c r="F82" t="str">
         <f t="shared" si="5"/>
-        <v>220</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{FREQUENCY/440,150},</v>
+      </c>
+      <c r="G82" t="str">
+        <f>VLOOKUP(A82,J:L,3,0)</f>
+        <v>B2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B83">
         <v>3</v>
@@ -2370,17 +3105,25 @@
         <v/>
       </c>
       <c r="D83">
+        <f>ROUND(VLOOKUP(A83,J:K,2,0),0)</f>
+        <v>415</v>
+      </c>
+      <c r="E83">
         <f t="shared" si="4"/>
-        <v>75</v>
-      </c>
-      <c r="E83">
+        <v>150</v>
+      </c>
+      <c r="F83" t="str">
         <f t="shared" si="5"/>
-        <v>208</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{FREQUENCY/415,150},</v>
+      </c>
+      <c r="G83" t="str">
+        <f>VLOOKUP(A83,J:L,3,0)</f>
+        <v>A2#</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B84">
         <v>3</v>
@@ -2390,17 +3133,25 @@
         <v/>
       </c>
       <c r="D84">
+        <f>ROUND(VLOOKUP(A84,J:K,2,0),0)</f>
+        <v>370</v>
+      </c>
+      <c r="E84">
         <f t="shared" si="4"/>
-        <v>75</v>
-      </c>
-      <c r="E84">
+        <v>150</v>
+      </c>
+      <c r="F84" t="str">
         <f t="shared" si="5"/>
-        <v>370</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{FREQUENCY/370,150},</v>
+      </c>
+      <c r="G84" t="str">
+        <f>VLOOKUP(A84,J:L,3,0)</f>
+        <v>G2#</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B85">
         <v>2</v>
@@ -2410,17 +3161,25 @@
         <v/>
       </c>
       <c r="D85">
+        <f>ROUND(VLOOKUP(A85,J:K,2,0),0)</f>
+        <v>277</v>
+      </c>
+      <c r="E85">
         <f t="shared" si="4"/>
-        <v>50</v>
-      </c>
-      <c r="E85">
+        <v>100</v>
+      </c>
+      <c r="F85" t="str">
         <f t="shared" si="5"/>
-        <v>277</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{FREQUENCY/277,100},</v>
+      </c>
+      <c r="G85" t="str">
+        <f>VLOOKUP(A85,J:L,3,0)</f>
+        <v>D1#</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B86">
         <v>4</v>
@@ -2430,117 +3189,165 @@
         <v>17</v>
       </c>
       <c r="D86">
+        <f>ROUND(VLOOKUP(A86,J:K,2,0),0)</f>
+        <v>330</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+      <c r="F86" t="str">
+        <f t="shared" si="5"/>
+        <v>{FREQUENCY/330,200},</v>
+      </c>
+      <c r="G86" t="str">
+        <f>VLOOKUP(A86,J:L,3,0)</f>
+        <v>F1#</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>30</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87" t="str">
+        <f>IF(MOD(SUM($B$1:B86),16)=0,SUM($B$1:B86)/16+1,"")</f>
+        <v/>
+      </c>
+      <c r="D87">
+        <f>ROUND(VLOOKUP(A87,J:K,2,0),0)</f>
+        <v>330</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="F87" t="str">
+        <f t="shared" si="5"/>
+        <v>{FREQUENCY/330,50},</v>
+      </c>
+      <c r="G87" t="str">
+        <f>VLOOKUP(A87,J:L,3,0)</f>
+        <v>F1#</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>23</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88" t="str">
+        <f>IF(MOD(SUM($B$1:B87),16)=0,SUM($B$1:B87)/16+1,"")</f>
+        <v/>
+      </c>
+      <c r="D88">
+        <f>ROUND(VLOOKUP(A88,J:K,2,0),0)</f>
+        <v>370</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="F88" t="str">
+        <f t="shared" si="5"/>
+        <v>{FREQUENCY/370,50},</v>
+      </c>
+      <c r="G88" t="str">
+        <f>VLOOKUP(A88,J:L,3,0)</f>
+        <v>G2#</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>30</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89" t="str">
+        <f>IF(MOD(SUM($B$1:B86),16)=0,SUM($B$1:B86)/16+1,"")</f>
+        <v/>
+      </c>
+      <c r="D89">
+        <f>ROUND(VLOOKUP(A89,J:K,2,0),0)</f>
+        <v>330</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="F89" t="str">
+        <f t="shared" si="5"/>
+        <v>{FREQUENCY/330,50},</v>
+      </c>
+      <c r="G89" t="str">
+        <f>VLOOKUP(A89,J:L,3,0)</f>
+        <v>F1#</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>26</v>
+      </c>
+      <c r="B90">
+        <v>9</v>
+      </c>
+      <c r="C90" t="str">
+        <f>IF(MOD(SUM($B$1:B89),16)=0,SUM($B$1:B89)/16+1,"")</f>
+        <v/>
+      </c>
+      <c r="D90">
+        <f>ROUND(VLOOKUP(A90,J:K,2,0),0)</f>
+        <v>294</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="4"/>
+        <v>450</v>
+      </c>
+      <c r="F90" t="str">
+        <f t="shared" si="5"/>
+        <v>{FREQUENCY/294,450},</v>
+      </c>
+      <c r="G90" t="str">
+        <f>VLOOKUP(A90,J:L,3,0)</f>
+        <v>E1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>0</v>
+      </c>
+      <c r="B91">
+        <v>2</v>
+      </c>
+      <c r="C91">
+        <f>IF(MOD(SUM($B$1:B90),16)=0,SUM($B$1:B90)/16+1,"")</f>
+        <v>18</v>
+      </c>
+      <c r="D91">
+        <f>ROUND(VLOOKUP(A91,J:K,2,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E91">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="E86">
+      <c r="F91" t="str">
         <f t="shared" si="5"/>
-        <v>330</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>12</v>
-      </c>
-      <c r="B87">
-        <v>3</v>
-      </c>
-      <c r="C87" t="str">
-        <f>IF(MOD(SUM($B$1:B86),16)=0,SUM($B$1:B86)/16+1,"")</f>
-        <v/>
-      </c>
-      <c r="D87">
-        <f t="shared" si="4"/>
-        <v>75</v>
-      </c>
-      <c r="E87">
-        <f t="shared" si="5"/>
-        <v>330</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>1</v>
-      </c>
-      <c r="B88">
-        <v>9</v>
-      </c>
-      <c r="C88" t="str">
-        <f>IF(MOD(SUM($B$1:B87),16)=0,SUM($B$1:B87)/16+1,"")</f>
-        <v/>
-      </c>
-      <c r="D88">
-        <f t="shared" si="4"/>
-        <v>225</v>
-      </c>
-      <c r="E88">
-        <f t="shared" si="5"/>
-        <v>294</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>0</v>
-      </c>
-      <c r="B89">
-        <v>2</v>
-      </c>
-      <c r="C89">
-        <f>IF(MOD(SUM($B$1:B88),16)=0,SUM($B$1:B88)/16+1,"")</f>
-        <v>18</v>
-      </c>
-      <c r="D89">
-        <f t="shared" si="4"/>
-        <v>50</v>
-      </c>
-      <c r="E89">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>6</v>
-      </c>
-      <c r="B90">
-        <v>3</v>
-      </c>
-      <c r="C90" t="str">
-        <f>IF(MOD(SUM($B$1:B89),16)=0,SUM($B$1:B89)/16+1,"")</f>
-        <v/>
-      </c>
-      <c r="D90">
-        <f t="shared" si="4"/>
-        <v>75</v>
-      </c>
-      <c r="E90">
-        <f t="shared" si="5"/>
-        <v>247</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>9</v>
-      </c>
-      <c r="B91">
-        <v>3</v>
-      </c>
-      <c r="C91" t="str">
-        <f>IF(MOD(SUM($B$1:B90),16)=0,SUM($B$1:B90)/16+1,"")</f>
-        <v/>
-      </c>
-      <c r="D91">
-        <f t="shared" si="4"/>
-        <v>75</v>
-      </c>
-      <c r="E91">
-        <f t="shared" si="5"/>
-        <v>208</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{0,100},</v>
+      </c>
+      <c r="G91">
+        <f>VLOOKUP(A91,J:L,3,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B92">
         <v>3</v>
@@ -2550,17 +3357,25 @@
         <v/>
       </c>
       <c r="D92">
+        <f>ROUND(VLOOKUP(A92,J:K,2,0),0)</f>
+        <v>247</v>
+      </c>
+      <c r="E92">
         <f t="shared" si="4"/>
-        <v>75</v>
-      </c>
-      <c r="E92">
+        <v>150</v>
+      </c>
+      <c r="F92" t="str">
         <f t="shared" si="5"/>
-        <v>370</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{FREQUENCY/247,150},</v>
+      </c>
+      <c r="G92" t="str">
+        <f>VLOOKUP(A92,J:L,3,0)</f>
+        <v>C1#</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B93">
         <v>3</v>
@@ -2570,737 +3385,1025 @@
         <v/>
       </c>
       <c r="D93">
+        <f>ROUND(VLOOKUP(A93,J:K,2,0),0)</f>
+        <v>415</v>
+      </c>
+      <c r="E93">
         <f t="shared" si="4"/>
-        <v>75</v>
-      </c>
-      <c r="E93">
+        <v>150</v>
+      </c>
+      <c r="F93" t="str">
         <f t="shared" si="5"/>
-        <v>330</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{FREQUENCY/415,150},</v>
+      </c>
+      <c r="G93" t="str">
+        <f>VLOOKUP(A93,J:L,3,0)</f>
+        <v>A2#</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C94" t="str">
         <f>IF(MOD(SUM($B$1:B93),16)=0,SUM($B$1:B93)/16+1,"")</f>
         <v/>
       </c>
       <c r="D94">
+        <f>ROUND(VLOOKUP(A94,J:K,2,0),0)</f>
+        <v>370</v>
+      </c>
+      <c r="E94">
         <f t="shared" si="4"/>
-        <v>50</v>
-      </c>
-      <c r="E94">
+        <v>150</v>
+      </c>
+      <c r="F94" t="str">
         <f t="shared" si="5"/>
+        <v>{FREQUENCY/370,150},</v>
+      </c>
+      <c r="G94" t="str">
+        <f>VLOOKUP(A94,J:L,3,0)</f>
+        <v>G2#</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>30</v>
+      </c>
+      <c r="B95">
+        <v>3</v>
+      </c>
+      <c r="C95" t="str">
+        <f>IF(MOD(SUM($B$1:B94),16)=0,SUM($B$1:B94)/16+1,"")</f>
+        <v/>
+      </c>
+      <c r="D95">
+        <f>ROUND(VLOOKUP(A95,J:K,2,0),0)</f>
+        <v>330</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="F95" t="str">
+        <f t="shared" si="5"/>
+        <v>{FREQUENCY/330,150},</v>
+      </c>
+      <c r="G95" t="str">
+        <f>VLOOKUP(A95,J:L,3,0)</f>
+        <v>F1#</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>26</v>
+      </c>
+      <c r="B96">
+        <v>2</v>
+      </c>
+      <c r="C96" t="str">
+        <f>IF(MOD(SUM($B$1:B95),16)=0,SUM($B$1:B95)/16+1,"")</f>
+        <v/>
+      </c>
+      <c r="D96">
+        <f>ROUND(VLOOKUP(A96,J:K,2,0),0)</f>
         <v>294</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>7</v>
-      </c>
-      <c r="B95">
-        <v>4</v>
-      </c>
-      <c r="C95">
-        <f>IF(MOD(SUM($B$1:B94),16)=0,SUM($B$1:B94)/16+1,"")</f>
-        <v>19</v>
-      </c>
-      <c r="D95">
+      <c r="E96">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="E95">
+      <c r="F96" t="str">
         <f t="shared" si="5"/>
+        <v>{FREQUENCY/294,100},</v>
+      </c>
+      <c r="G96" t="str">
+        <f>VLOOKUP(A96,J:L,3,0)</f>
+        <v>E1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>16</v>
+      </c>
+      <c r="B97">
+        <v>4</v>
+      </c>
+      <c r="C97">
+        <f>IF(MOD(SUM($B$1:B96),16)=0,SUM($B$1:B96)/16+1,"")</f>
+        <v>19</v>
+      </c>
+      <c r="D97">
+        <f>ROUND(VLOOKUP(A97,J:K,2,0),0)</f>
         <v>277</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>1</v>
-      </c>
-      <c r="B96">
-        <v>3</v>
-      </c>
-      <c r="C96" t="str">
-        <f>IF(MOD(SUM($B$1:B95),16)=0,SUM($B$1:B95)/16+1,"")</f>
-        <v/>
-      </c>
-      <c r="D96">
+      <c r="E97">
         <f t="shared" si="4"/>
-        <v>75</v>
-      </c>
-      <c r="E96">
+        <v>200</v>
+      </c>
+      <c r="F97" t="str">
         <f t="shared" si="5"/>
+        <v>{FREQUENCY/277,200},</v>
+      </c>
+      <c r="G97" t="str">
+        <f>VLOOKUP(A97,J:L,3,0)</f>
+        <v>D1#</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>26</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98" t="str">
+        <f>IF(MOD(SUM($B$1:B97),16)=0,SUM($B$1:B97)/16+1,"")</f>
+        <v/>
+      </c>
+      <c r="D98">
+        <f>ROUND(VLOOKUP(A98,J:K,2,0),0)</f>
         <v>294</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>7</v>
-      </c>
-      <c r="B97">
-        <v>9</v>
-      </c>
-      <c r="C97" t="str">
-        <f>IF(MOD(SUM($B$1:B96),16)=0,SUM($B$1:B96)/16+1,"")</f>
-        <v/>
-      </c>
-      <c r="D97">
+      <c r="E98">
         <f t="shared" si="4"/>
-        <v>225</v>
-      </c>
-      <c r="E97">
+        <v>50</v>
+      </c>
+      <c r="F98" t="str">
         <f t="shared" si="5"/>
-        <v>277</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>0</v>
-      </c>
-      <c r="B98">
-        <v>2</v>
-      </c>
-      <c r="C98">
-        <f>IF(MOD(SUM($B$1:B97),16)=0,SUM($B$1:B97)/16+1,"")</f>
-        <v>20</v>
-      </c>
-      <c r="D98">
-        <f t="shared" si="4"/>
-        <v>50</v>
-      </c>
-      <c r="E98">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{FREQUENCY/294,50},</v>
+      </c>
+      <c r="G98" t="str">
+        <f>VLOOKUP(A98,J:L,3,0)</f>
+        <v>E1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C99" t="str">
         <f>IF(MOD(SUM($B$1:B98),16)=0,SUM($B$1:B98)/16+1,"")</f>
         <v/>
       </c>
       <c r="D99">
+        <f>ROUND(VLOOKUP(A99,J:K,2,0),0)</f>
+        <v>330</v>
+      </c>
+      <c r="E99">
         <f t="shared" si="4"/>
-        <v>75</v>
-      </c>
-      <c r="E99">
+        <v>50</v>
+      </c>
+      <c r="F99" t="str">
         <f t="shared" si="5"/>
-        <v>277</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{FREQUENCY/330,50},</v>
+      </c>
+      <c r="G99" t="str">
+        <f>VLOOKUP(A99,J:L,3,0)</f>
+        <v>F1#</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B100">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C100" t="str">
         <f>IF(MOD(SUM($B$1:B99),16)=0,SUM($B$1:B99)/16+1,"")</f>
         <v/>
       </c>
       <c r="D100">
+        <f>ROUND(VLOOKUP(A100,J:K,2,0),0)</f>
+        <v>294</v>
+      </c>
+      <c r="E100">
         <f t="shared" si="4"/>
-        <v>75</v>
-      </c>
-      <c r="E100">
+        <v>50</v>
+      </c>
+      <c r="F100" t="str">
         <f t="shared" si="5"/>
-        <v>220</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{FREQUENCY/294,50},</v>
+      </c>
+      <c r="G100" t="str">
+        <f>VLOOKUP(A100,J:L,3,0)</f>
+        <v>E1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>16</v>
+      </c>
+      <c r="B101">
         <v>9</v>
       </c>
-      <c r="B101">
+      <c r="C101" t="str">
+        <f>IF(MOD(SUM($B$1:B98),16)=0,SUM($B$1:B98)/16+1,"")</f>
+        <v/>
+      </c>
+      <c r="D101">
+        <f>ROUND(VLOOKUP(A101,J:K,2,0),0)</f>
+        <v>277</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="4"/>
+        <v>450</v>
+      </c>
+      <c r="F101" t="str">
+        <f t="shared" si="5"/>
+        <v>{FREQUENCY/277,450},</v>
+      </c>
+      <c r="G101" t="str">
+        <f>VLOOKUP(A101,J:L,3,0)</f>
+        <v>D1#</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>0</v>
+      </c>
+      <c r="B102">
+        <v>2</v>
+      </c>
+      <c r="C102">
+        <f>IF(MOD(SUM($B$1:B101),16)=0,SUM($B$1:B101)/16+1,"")</f>
+        <v>20</v>
+      </c>
+      <c r="D102">
+        <f>ROUND(VLOOKUP(A102,J:K,2,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="F102" t="str">
+        <f t="shared" si="5"/>
+        <v>{0,100},</v>
+      </c>
+      <c r="G102">
+        <f>VLOOKUP(A102,J:L,3,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>16</v>
+      </c>
+      <c r="B103">
         <v>3</v>
-      </c>
-      <c r="C101" t="str">
-        <f>IF(MOD(SUM($B$1:B100),16)=0,SUM($B$1:B100)/16+1,"")</f>
-        <v/>
-      </c>
-      <c r="D101">
-        <f t="shared" si="4"/>
-        <v>75</v>
-      </c>
-      <c r="E101">
-        <f t="shared" si="5"/>
-        <v>208</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>4</v>
-      </c>
-      <c r="B102">
-        <v>3</v>
-      </c>
-      <c r="C102" t="str">
-        <f>IF(MOD(SUM($B$1:B101),16)=0,SUM($B$1:B101)/16+1,"")</f>
-        <v/>
-      </c>
-      <c r="D102">
-        <f t="shared" si="4"/>
-        <v>75</v>
-      </c>
-      <c r="E102">
-        <f t="shared" si="5"/>
-        <v>370</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>7</v>
-      </c>
-      <c r="B103">
-        <v>2</v>
       </c>
       <c r="C103" t="str">
         <f>IF(MOD(SUM($B$1:B102),16)=0,SUM($B$1:B102)/16+1,"")</f>
         <v/>
       </c>
       <c r="D103">
+        <f>ROUND(VLOOKUP(A103,J:K,2,0),0)</f>
+        <v>277</v>
+      </c>
+      <c r="E103">
         <f t="shared" si="4"/>
-        <v>50</v>
-      </c>
-      <c r="E103">
+        <v>150</v>
+      </c>
+      <c r="F103" t="str">
         <f t="shared" si="5"/>
+        <v>{FREQUENCY/277,150},</v>
+      </c>
+      <c r="G103" t="str">
+        <f>VLOOKUP(A103,J:L,3,0)</f>
+        <v>D1#</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>20</v>
+      </c>
+      <c r="B104">
+        <v>3</v>
+      </c>
+      <c r="C104" t="str">
+        <f>IF(MOD(SUM($B$1:B103),16)=0,SUM($B$1:B103)/16+1,"")</f>
+        <v/>
+      </c>
+      <c r="D104">
+        <f>ROUND(VLOOKUP(A104,J:K,2,0),0)</f>
+        <v>440</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="F104" t="str">
+        <f t="shared" si="5"/>
+        <v>{FREQUENCY/440,150},</v>
+      </c>
+      <c r="G104" t="str">
+        <f>VLOOKUP(A104,J:L,3,0)</f>
+        <v>B2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>18</v>
+      </c>
+      <c r="B105">
+        <v>3</v>
+      </c>
+      <c r="C105" t="str">
+        <f>IF(MOD(SUM($B$1:B104),16)=0,SUM($B$1:B104)/16+1,"")</f>
+        <v/>
+      </c>
+      <c r="D105">
+        <f>ROUND(VLOOKUP(A105,J:K,2,0),0)</f>
+        <v>415</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="F105" t="str">
+        <f t="shared" si="5"/>
+        <v>{FREQUENCY/415,150},</v>
+      </c>
+      <c r="G105" t="str">
+        <f>VLOOKUP(A105,J:L,3,0)</f>
+        <v>A2#</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>23</v>
+      </c>
+      <c r="B106">
+        <v>3</v>
+      </c>
+      <c r="C106" t="str">
+        <f>IF(MOD(SUM($B$1:B105),16)=0,SUM($B$1:B105)/16+1,"")</f>
+        <v/>
+      </c>
+      <c r="D106">
+        <f>ROUND(VLOOKUP(A106,J:K,2,0),0)</f>
+        <v>370</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="F106" t="str">
+        <f t="shared" si="5"/>
+        <v>{FREQUENCY/370,150},</v>
+      </c>
+      <c r="G106" t="str">
+        <f>VLOOKUP(A106,J:L,3,0)</f>
+        <v>G2#</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>16</v>
+      </c>
+      <c r="B107">
+        <v>2</v>
+      </c>
+      <c r="C107" t="str">
+        <f>IF(MOD(SUM($B$1:B106),16)=0,SUM($B$1:B106)/16+1,"")</f>
+        <v/>
+      </c>
+      <c r="D107">
+        <f>ROUND(VLOOKUP(A107,J:K,2,0),0)</f>
         <v>277</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>12</v>
-      </c>
-      <c r="B104">
-        <v>4</v>
-      </c>
-      <c r="C104">
-        <f>IF(MOD(SUM($B$1:B103),16)=0,SUM($B$1:B103)/16+1,"")</f>
-        <v>21</v>
-      </c>
-      <c r="D104">
+      <c r="E107">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="E104">
+      <c r="F107" t="str">
         <f t="shared" si="5"/>
-        <v>330</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>12</v>
-      </c>
-      <c r="B105">
-        <v>3</v>
-      </c>
-      <c r="C105" t="str">
-        <f>IF(MOD(SUM($B$1:B104),16)=0,SUM($B$1:B104)/16+1,"")</f>
-        <v/>
-      </c>
-      <c r="D105">
-        <f t="shared" si="4"/>
-        <v>75</v>
-      </c>
-      <c r="E105">
-        <f t="shared" si="5"/>
-        <v>330</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>1</v>
-      </c>
-      <c r="B106">
-        <v>7</v>
-      </c>
-      <c r="C106" t="str">
-        <f>IF(MOD(SUM($B$1:B105),16)=0,SUM($B$1:B105)/16+1,"")</f>
-        <v/>
-      </c>
-      <c r="D106">
-        <f t="shared" si="4"/>
-        <v>175</v>
-      </c>
-      <c r="E106">
-        <f t="shared" si="5"/>
-        <v>294</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>1</v>
-      </c>
-      <c r="B107">
-        <v>2</v>
-      </c>
-      <c r="C107" t="str">
-        <f>IF(MOD(SUM($B$1:B106),16)=0,SUM($B$1:B106)/16+1,"")</f>
-        <v/>
-      </c>
-      <c r="D107">
-        <f t="shared" si="4"/>
-        <v>50</v>
-      </c>
-      <c r="E107">
-        <f t="shared" si="5"/>
-        <v>294</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{FREQUENCY/277,100},</v>
+      </c>
+      <c r="G107" t="str">
+        <f>VLOOKUP(A107,J:L,3,0)</f>
+        <v>D1#</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B108">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C108">
         <f>IF(MOD(SUM($B$1:B107),16)=0,SUM($B$1:B107)/16+1,"")</f>
+        <v>21</v>
+      </c>
+      <c r="D108">
+        <f>ROUND(VLOOKUP(A108,J:K,2,0),0)</f>
+        <v>330</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+      <c r="F108" t="str">
+        <f t="shared" si="5"/>
+        <v>{FREQUENCY/330,200},</v>
+      </c>
+      <c r="G108" t="str">
+        <f>VLOOKUP(A108,J:L,3,0)</f>
+        <v>F1#</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>30</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109" t="str">
+        <f>IF(MOD(SUM($B$1:B108),16)=0,SUM($B$1:B108)/16+1,"")</f>
+        <v/>
+      </c>
+      <c r="D109">
+        <f>ROUND(VLOOKUP(A109,J:K,2,0),0)</f>
+        <v>330</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="F109" t="str">
+        <f t="shared" si="5"/>
+        <v>{FREQUENCY/330,50},</v>
+      </c>
+      <c r="G109" t="str">
+        <f>VLOOKUP(A109,J:L,3,0)</f>
+        <v>F1#</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>23</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <f>ROUND(VLOOKUP(A110,J:K,2,0),0)</f>
+        <v>370</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="F110" t="str">
+        <f t="shared" si="5"/>
+        <v>{FREQUENCY/370,50},</v>
+      </c>
+      <c r="G110" t="str">
+        <f>VLOOKUP(A110,J:L,3,0)</f>
+        <v>G2#</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>30</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <f>ROUND(VLOOKUP(A111,J:K,2,0),0)</f>
+        <v>330</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="F111" t="str">
+        <f t="shared" si="5"/>
+        <v>{FREQUENCY/330,50},</v>
+      </c>
+      <c r="G111" t="str">
+        <f>VLOOKUP(A111,J:L,3,0)</f>
+        <v>F1#</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>26</v>
+      </c>
+      <c r="B112">
+        <v>7</v>
+      </c>
+      <c r="C112" t="str">
+        <f>IF(MOD(SUM($B$1:B109),16)=0,SUM($B$1:B109)/16+1,"")</f>
+        <v/>
+      </c>
+      <c r="D112">
+        <f>ROUND(VLOOKUP(A112,J:K,2,0),0)</f>
+        <v>294</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="4"/>
+        <v>350</v>
+      </c>
+      <c r="F112" t="str">
+        <f t="shared" si="5"/>
+        <v>{FREQUENCY/294,350},</v>
+      </c>
+      <c r="G112" t="str">
+        <f>VLOOKUP(A112,J:L,3,0)</f>
+        <v>E1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>26</v>
+      </c>
+      <c r="B113">
+        <v>2</v>
+      </c>
+      <c r="C113" t="str">
+        <f>IF(MOD(SUM($B$1:B112),16)=0,SUM($B$1:B112)/16+1,"")</f>
+        <v/>
+      </c>
+      <c r="D113">
+        <f>ROUND(VLOOKUP(A113,J:K,2,0),0)</f>
+        <v>294</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="F113" t="str">
+        <f t="shared" si="5"/>
+        <v>{FREQUENCY/294,100},</v>
+      </c>
+      <c r="G113" t="str">
+        <f>VLOOKUP(A113,J:L,3,0)</f>
+        <v>E1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>30</v>
+      </c>
+      <c r="B114">
+        <v>6</v>
+      </c>
+      <c r="C114">
+        <f>IF(MOD(SUM($B$1:B113),16)=0,SUM($B$1:B113)/16+1,"")</f>
         <v>22</v>
       </c>
-      <c r="D108">
+      <c r="D114">
+        <f>ROUND(VLOOKUP(A114,J:K,2,0),0)</f>
+        <v>330</v>
+      </c>
+      <c r="E114">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="F114" t="str">
+        <f t="shared" si="5"/>
+        <v>{FREQUENCY/330,300},</v>
+      </c>
+      <c r="G114" t="str">
+        <f>VLOOKUP(A114,J:L,3,0)</f>
+        <v>F1#</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>23</v>
+      </c>
+      <c r="B115">
+        <v>2</v>
+      </c>
+      <c r="C115" t="str">
+        <f>IF(MOD(SUM($B$1:B114),16)=0,SUM($B$1:B114)/16+1,"")</f>
+        <v/>
+      </c>
+      <c r="D115">
+        <f>ROUND(VLOOKUP(A115,J:K,2,0),0)</f>
+        <v>370</v>
+      </c>
+      <c r="E115">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="F115" t="str">
+        <f t="shared" si="5"/>
+        <v>{FREQUENCY/370,100},</v>
+      </c>
+      <c r="G115" t="str">
+        <f>VLOOKUP(A115,J:L,3,0)</f>
+        <v>G2#</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>30</v>
+      </c>
+      <c r="B116">
+        <v>6</v>
+      </c>
+      <c r="C116" t="str">
+        <f>IF(MOD(SUM($B$1:B115),16)=0,SUM($B$1:B115)/16+1,"")</f>
+        <v/>
+      </c>
+      <c r="D116">
+        <f>ROUND(VLOOKUP(A116,J:K,2,0),0)</f>
+        <v>330</v>
+      </c>
+      <c r="E116">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="F116" t="str">
+        <f t="shared" si="5"/>
+        <v>{FREQUENCY/330,300},</v>
+      </c>
+      <c r="G116" t="str">
+        <f>VLOOKUP(A116,J:L,3,0)</f>
+        <v>F1#</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>26</v>
+      </c>
+      <c r="B117">
+        <v>2</v>
+      </c>
+      <c r="C117" t="str">
+        <f>IF(MOD(SUM($B$1:B116),16)=0,SUM($B$1:B116)/16+1,"")</f>
+        <v/>
+      </c>
+      <c r="D117">
+        <f>ROUND(VLOOKUP(A117,J:K,2,0),0)</f>
+        <v>294</v>
+      </c>
+      <c r="E117">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="F117" t="str">
+        <f t="shared" si="5"/>
+        <v>{FREQUENCY/294,100},</v>
+      </c>
+      <c r="G117" t="str">
+        <f>VLOOKUP(A117,J:L,3,0)</f>
+        <v>E1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>16</v>
+      </c>
+      <c r="B118">
+        <v>16</v>
+      </c>
+      <c r="C118">
+        <f>IF(MOD(SUM($B$1:B117),16)=0,SUM($B$1:B117)/16+1,"")</f>
+        <v>23</v>
+      </c>
+      <c r="D118">
+        <f>ROUND(VLOOKUP(A118,J:K,2,0),0)</f>
+        <v>277</v>
+      </c>
+      <c r="E118">
+        <f t="shared" si="4"/>
+        <v>800</v>
+      </c>
+      <c r="F118" t="str">
+        <f t="shared" si="5"/>
+        <v>{FREQUENCY/277,800},</v>
+      </c>
+      <c r="G118" t="str">
+        <f>VLOOKUP(A118,J:L,3,0)</f>
+        <v>D1#</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>0</v>
+      </c>
+      <c r="B119">
+        <v>2</v>
+      </c>
+      <c r="C119">
+        <f>IF(MOD(SUM($B$1:B118),16)=0,SUM($B$1:B118)/16+1,"")</f>
+        <v>24</v>
+      </c>
+      <c r="D119">
+        <f>ROUND(VLOOKUP(A119,J:K,2,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="F119" t="str">
+        <f t="shared" si="5"/>
+        <v>{0,100},</v>
+      </c>
+      <c r="G119">
+        <f>VLOOKUP(A119,J:L,3,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>20</v>
+      </c>
+      <c r="B120">
+        <v>3</v>
+      </c>
+      <c r="C120" t="str">
+        <f>IF(MOD(SUM($B$1:B119),16)=0,SUM($B$1:B119)/16+1,"")</f>
+        <v/>
+      </c>
+      <c r="D120">
+        <f>ROUND(VLOOKUP(A120,J:K,2,0),0)</f>
+        <v>440</v>
+      </c>
+      <c r="E120">
         <f t="shared" si="4"/>
         <v>150</v>
       </c>
-      <c r="E108">
+      <c r="F120" t="str">
         <f t="shared" si="5"/>
-        <v>330</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>4</v>
-      </c>
-      <c r="B109">
-        <v>2</v>
-      </c>
-      <c r="C109" t="str">
-        <f>IF(MOD(SUM($B$1:B108),16)=0,SUM($B$1:B108)/16+1,"")</f>
-        <v/>
-      </c>
-      <c r="D109">
-        <f t="shared" si="4"/>
-        <v>50</v>
-      </c>
-      <c r="E109">
-        <f t="shared" si="5"/>
-        <v>370</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>12</v>
-      </c>
-      <c r="B110">
-        <v>6</v>
-      </c>
-      <c r="C110" t="str">
-        <f>IF(MOD(SUM($B$1:B109),16)=0,SUM($B$1:B109)/16+1,"")</f>
-        <v/>
-      </c>
-      <c r="D110">
+        <v>{FREQUENCY/440,150},</v>
+      </c>
+      <c r="G120" t="str">
+        <f>VLOOKUP(A120,J:L,3,0)</f>
+        <v>B2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>18</v>
+      </c>
+      <c r="B121">
+        <v>3</v>
+      </c>
+      <c r="C121" t="str">
+        <f>IF(MOD(SUM($B$1:B120),16)=0,SUM($B$1:B120)/16+1,"")</f>
+        <v/>
+      </c>
+      <c r="D121">
+        <f>ROUND(VLOOKUP(A121,J:K,2,0),0)</f>
+        <v>415</v>
+      </c>
+      <c r="E121">
         <f t="shared" si="4"/>
         <v>150</v>
       </c>
-      <c r="E110">
+      <c r="F121" t="str">
         <f t="shared" si="5"/>
-        <v>330</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>1</v>
-      </c>
-      <c r="B111">
-        <v>2</v>
-      </c>
-      <c r="C111" t="str">
-        <f>IF(MOD(SUM($B$1:B110),16)=0,SUM($B$1:B110)/16+1,"")</f>
-        <v/>
-      </c>
-      <c r="D111">
-        <f t="shared" si="4"/>
-        <v>50</v>
-      </c>
-      <c r="E111">
-        <f t="shared" si="5"/>
-        <v>294</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>7</v>
-      </c>
-      <c r="B112">
-        <v>16</v>
-      </c>
-      <c r="C112">
-        <f>IF(MOD(SUM($B$1:B111),16)=0,SUM($B$1:B111)/16+1,"")</f>
-        <v>23</v>
-      </c>
-      <c r="D112">
-        <f t="shared" si="4"/>
-        <v>400</v>
-      </c>
-      <c r="E112">
-        <f t="shared" si="5"/>
-        <v>277</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>0</v>
-      </c>
-      <c r="B113">
-        <v>2</v>
-      </c>
-      <c r="C113">
-        <f>IF(MOD(SUM($B$1:B112),16)=0,SUM($B$1:B112)/16+1,"")</f>
-        <v>24</v>
-      </c>
-      <c r="D113">
-        <f t="shared" si="4"/>
-        <v>50</v>
-      </c>
-      <c r="E113">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>8</v>
-      </c>
-      <c r="B114">
+        <v>{FREQUENCY/415,150},</v>
+      </c>
+      <c r="G121" t="str">
+        <f>VLOOKUP(A121,J:L,3,0)</f>
+        <v>A2#</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>20</v>
+      </c>
+      <c r="B122">
         <v>3</v>
-      </c>
-      <c r="C114" t="str">
-        <f>IF(MOD(SUM($B$1:B113),16)=0,SUM($B$1:B113)/16+1,"")</f>
-        <v/>
-      </c>
-      <c r="D114">
-        <f t="shared" si="4"/>
-        <v>75</v>
-      </c>
-      <c r="E114">
-        <f t="shared" si="5"/>
-        <v>220</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>9</v>
-      </c>
-      <c r="B115">
-        <v>3</v>
-      </c>
-      <c r="C115" t="str">
-        <f>IF(MOD(SUM($B$1:B114),16)=0,SUM($B$1:B114)/16+1,"")</f>
-        <v/>
-      </c>
-      <c r="D115">
-        <f t="shared" si="4"/>
-        <v>75</v>
-      </c>
-      <c r="E115">
-        <f t="shared" si="5"/>
-        <v>208</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>8</v>
-      </c>
-      <c r="B116">
-        <v>3</v>
-      </c>
-      <c r="C116" t="str">
-        <f>IF(MOD(SUM($B$1:B115),16)=0,SUM($B$1:B115)/16+1,"")</f>
-        <v/>
-      </c>
-      <c r="D116">
-        <f t="shared" si="4"/>
-        <v>75</v>
-      </c>
-      <c r="E116">
-        <f t="shared" si="5"/>
-        <v>220</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>9</v>
-      </c>
-      <c r="B117">
-        <v>3</v>
-      </c>
-      <c r="C117" t="str">
-        <f>IF(MOD(SUM($B$1:B116),16)=0,SUM($B$1:B116)/16+1,"")</f>
-        <v/>
-      </c>
-      <c r="D117">
-        <f t="shared" si="4"/>
-        <v>75</v>
-      </c>
-      <c r="E117">
-        <f t="shared" si="5"/>
-        <v>208</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>7</v>
-      </c>
-      <c r="B118">
-        <v>2</v>
-      </c>
-      <c r="C118" t="str">
-        <f>IF(MOD(SUM($B$1:B117),16)=0,SUM($B$1:B117)/16+1,"")</f>
-        <v/>
-      </c>
-      <c r="D118">
-        <f t="shared" si="4"/>
-        <v>50</v>
-      </c>
-      <c r="E118">
-        <f t="shared" si="5"/>
-        <v>277</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>12</v>
-      </c>
-      <c r="B119">
-        <v>5</v>
-      </c>
-      <c r="C119">
-        <f>IF(MOD(SUM($B$1:B118),16)=0,SUM($B$1:B118)/16+1,"")</f>
-        <v>25</v>
-      </c>
-      <c r="D119">
-        <f t="shared" si="4"/>
-        <v>125</v>
-      </c>
-      <c r="E119">
-        <f t="shared" si="5"/>
-        <v>330</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>1</v>
-      </c>
-      <c r="B120">
-        <v>1</v>
-      </c>
-      <c r="C120" t="str">
-        <f>IF(MOD(SUM($B$1:B119),16)=0,SUM($B$1:B119)/16+1,"")</f>
-        <v/>
-      </c>
-      <c r="D120">
-        <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
-      <c r="E120">
-        <f t="shared" si="5"/>
-        <v>294</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>7</v>
-      </c>
-      <c r="B121">
-        <v>1</v>
-      </c>
-      <c r="C121" t="str">
-        <f>IF(MOD(SUM($B$1:B120),16)=0,SUM($B$1:B120)/16+1,"")</f>
-        <v/>
-      </c>
-      <c r="D121">
-        <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
-      <c r="E121">
-        <f t="shared" si="5"/>
-        <v>277</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>1</v>
-      </c>
-      <c r="B122">
-        <v>9</v>
       </c>
       <c r="C122" t="str">
         <f>IF(MOD(SUM($B$1:B121),16)=0,SUM($B$1:B121)/16+1,"")</f>
         <v/>
       </c>
       <c r="D122">
+        <f>ROUND(VLOOKUP(A122,J:K,2,0),0)</f>
+        <v>440</v>
+      </c>
+      <c r="E122">
         <f t="shared" si="4"/>
-        <v>225</v>
-      </c>
-      <c r="E122">
+        <v>150</v>
+      </c>
+      <c r="F122" t="str">
         <f t="shared" si="5"/>
-        <v>294</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>0</v>
+        <v>{FREQUENCY/440,150},</v>
+      </c>
+      <c r="G122" t="str">
+        <f>VLOOKUP(A122,J:L,3,0)</f>
+        <v>B2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>18</v>
       </c>
       <c r="B123">
+        <v>3</v>
+      </c>
+      <c r="C123" t="str">
+        <f>IF(MOD(SUM($B$1:B122),16)=0,SUM($B$1:B122)/16+1,"")</f>
+        <v/>
+      </c>
+      <c r="D123">
+        <f>ROUND(VLOOKUP(A123,J:K,2,0),0)</f>
+        <v>415</v>
+      </c>
+      <c r="E123">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="F123" t="str">
+        <f t="shared" si="5"/>
+        <v>{FREQUENCY/415,150},</v>
+      </c>
+      <c r="G123" t="str">
+        <f>VLOOKUP(A123,J:L,3,0)</f>
+        <v>A2#</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>16</v>
+      </c>
+      <c r="B124">
         <v>2</v>
-      </c>
-      <c r="C123">
-        <f>IF(MOD(SUM($B$1:B122),16)=0,SUM($B$1:B122)/16+1,"")</f>
-        <v>26</v>
-      </c>
-      <c r="D123">
-        <f t="shared" si="4"/>
-        <v>50</v>
-      </c>
-      <c r="E123">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>9</v>
-      </c>
-      <c r="B124">
-        <v>3</v>
       </c>
       <c r="C124" t="str">
         <f>IF(MOD(SUM($B$1:B123),16)=0,SUM($B$1:B123)/16+1,"")</f>
         <v/>
       </c>
       <c r="D124">
+        <f>ROUND(VLOOKUP(A124,J:K,2,0),0)</f>
+        <v>277</v>
+      </c>
+      <c r="E124">
         <f t="shared" si="4"/>
-        <v>75</v>
-      </c>
-      <c r="E124">
+        <v>100</v>
+      </c>
+      <c r="F124" t="str">
         <f t="shared" si="5"/>
-        <v>208</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{FREQUENCY/277,100},</v>
+      </c>
+      <c r="G124" t="str">
+        <f>VLOOKUP(A124,J:L,3,0)</f>
+        <v>D1#</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B125">
-        <v>3</v>
-      </c>
-      <c r="C125" t="str">
+        <v>5</v>
+      </c>
+      <c r="C125">
         <f>IF(MOD(SUM($B$1:B124),16)=0,SUM($B$1:B124)/16+1,"")</f>
-        <v/>
+        <v>25</v>
       </c>
       <c r="D125">
+        <f>ROUND(VLOOKUP(A125,J:K,2,0),0)</f>
+        <v>330</v>
+      </c>
+      <c r="E125">
         <f t="shared" si="4"/>
-        <v>75</v>
-      </c>
-      <c r="E125">
+        <v>250</v>
+      </c>
+      <c r="F125" t="str">
         <f t="shared" si="5"/>
-        <v>370</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{FREQUENCY/330,250},</v>
+      </c>
+      <c r="G125" t="str">
+        <f>VLOOKUP(A125,J:L,3,0)</f>
+        <v>F1#</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B126">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C126" t="str">
         <f>IF(MOD(SUM($B$1:B125),16)=0,SUM($B$1:B125)/16+1,"")</f>
         <v/>
       </c>
       <c r="D126">
+        <f>ROUND(VLOOKUP(A126,J:K,2,0),0)</f>
+        <v>294</v>
+      </c>
+      <c r="E126">
         <f t="shared" si="4"/>
-        <v>75</v>
-      </c>
-      <c r="E126">
+        <v>50</v>
+      </c>
+      <c r="F126" t="str">
         <f t="shared" si="5"/>
-        <v>208</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{FREQUENCY/294,50},</v>
+      </c>
+      <c r="G126" t="str">
+        <f>VLOOKUP(A126,J:L,3,0)</f>
+        <v>E1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B127">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C127" t="str">
         <f>IF(MOD(SUM($B$1:B126),16)=0,SUM($B$1:B126)/16+1,"")</f>
         <v/>
       </c>
       <c r="D127">
+        <f>ROUND(VLOOKUP(A127,J:K,2,0),0)</f>
+        <v>277</v>
+      </c>
+      <c r="E127">
         <f t="shared" si="4"/>
-        <v>75</v>
-      </c>
-      <c r="E127">
+        <v>50</v>
+      </c>
+      <c r="F127" t="str">
         <f t="shared" si="5"/>
-        <v>330</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{FREQUENCY/277,50},</v>
+      </c>
+      <c r="G127" t="str">
+        <f>VLOOKUP(A127,J:L,3,0)</f>
+        <v>D1#</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B128">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C128" t="str">
         <f>IF(MOD(SUM($B$1:B127),16)=0,SUM($B$1:B127)/16+1,"")</f>
         <v/>
       </c>
       <c r="D128">
+        <f>ROUND(VLOOKUP(A128,J:K,2,0),0)</f>
+        <v>294</v>
+      </c>
+      <c r="E128">
         <f t="shared" si="4"/>
-        <v>50</v>
-      </c>
-      <c r="E128">
+        <v>450</v>
+      </c>
+      <c r="F128" t="str">
         <f t="shared" si="5"/>
-        <v>294</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>7</v>
+        <v>{FREQUENCY/294,450},</v>
+      </c>
+      <c r="G128" t="str">
+        <f>VLOOKUP(A128,J:L,3,0)</f>
+        <v>E1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>0</v>
       </c>
       <c r="B129">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C129">
         <f>IF(MOD(SUM($B$1:B128),16)=0,SUM($B$1:B128)/16+1,"")</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D129">
+        <f>ROUND(VLOOKUP(A129,J:K,2,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E129">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="E129">
+      <c r="F129" t="str">
         <f t="shared" si="5"/>
-        <v>277</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{0,100},</v>
+      </c>
+      <c r="G129">
+        <f>VLOOKUP(A129,J:L,3,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B130">
         <v>3</v>
@@ -3310,117 +4413,165 @@
         <v/>
       </c>
       <c r="D130">
-        <f t="shared" ref="D130:D193" si="6">24000000*B130*1/32/30000</f>
-        <v>75</v>
+        <f>ROUND(VLOOKUP(A130,J:K,2,0),0)</f>
+        <v>415</v>
       </c>
       <c r="E130">
-        <f t="shared" ref="E130:E193" si="7">ROUND(VLOOKUP(A130,H:J,3,0),0)</f>
-        <v>294</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="F130" t="str">
+        <f t="shared" ref="F130:F195" si="6">"{"&amp;IF(D130&gt;0,"FREQUENCY/","")&amp;D130&amp;","&amp;E130&amp;"},"</f>
+        <v>{FREQUENCY/415,150},</v>
+      </c>
+      <c r="G130" t="str">
+        <f>VLOOKUP(A130,J:L,3,0)</f>
+        <v>A2#</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B131">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C131" t="str">
         <f>IF(MOD(SUM($B$1:B130),16)=0,SUM($B$1:B130)/16+1,"")</f>
         <v/>
       </c>
       <c r="D131">
+        <f>ROUND(VLOOKUP(A131,J:K,2,0),0)</f>
+        <v>370</v>
+      </c>
+      <c r="E131">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="F131" t="str">
         <f t="shared" si="6"/>
-        <v>225</v>
-      </c>
-      <c r="E131">
-        <f t="shared" si="7"/>
-        <v>277</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132">
-        <v>0</v>
+        <v>{FREQUENCY/370,150},</v>
+      </c>
+      <c r="G131" t="str">
+        <f>VLOOKUP(A131,J:L,3,0)</f>
+        <v>G2#</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>18</v>
       </c>
       <c r="B132">
         <v>3</v>
       </c>
-      <c r="C132">
+      <c r="C132" t="str">
         <f>IF(MOD(SUM($B$1:B131),16)=0,SUM($B$1:B131)/16+1,"")</f>
-        <v>28</v>
+        <v/>
       </c>
       <c r="D132">
+        <f>ROUND(VLOOKUP(A132,J:K,2,0),0)</f>
+        <v>415</v>
+      </c>
+      <c r="E132">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="F132" t="str">
         <f t="shared" si="6"/>
-        <v>75</v>
-      </c>
-      <c r="E132">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{FREQUENCY/415,150},</v>
+      </c>
+      <c r="G132" t="str">
+        <f>VLOOKUP(A132,J:L,3,0)</f>
+        <v>A2#</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
+        <v>30</v>
+      </c>
+      <c r="B133">
         <v>3</v>
-      </c>
-      <c r="B133">
-        <v>1</v>
       </c>
       <c r="C133" t="str">
         <f>IF(MOD(SUM($B$1:B132),16)=0,SUM($B$1:B132)/16+1,"")</f>
         <v/>
       </c>
       <c r="D133">
+        <f>ROUND(VLOOKUP(A133,J:K,2,0),0)</f>
+        <v>330</v>
+      </c>
+      <c r="E133">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="F133" t="str">
         <f t="shared" si="6"/>
-        <v>25</v>
-      </c>
-      <c r="E133">
-        <f t="shared" si="7"/>
-        <v>208</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{FREQUENCY/330,150},</v>
+      </c>
+      <c r="G133" t="str">
+        <f>VLOOKUP(A133,J:L,3,0)</f>
+        <v>F1#</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C134" t="str">
         <f>IF(MOD(SUM($B$1:B133),16)=0,SUM($B$1:B133)/16+1,"")</f>
         <v/>
       </c>
       <c r="D134">
+        <f>ROUND(VLOOKUP(A134,J:K,2,0),0)</f>
+        <v>294</v>
+      </c>
+      <c r="E134">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="F134" t="str">
         <f t="shared" si="6"/>
-        <v>25</v>
-      </c>
-      <c r="E134">
-        <f t="shared" si="7"/>
-        <v>220</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{FREQUENCY/294,100},</v>
+      </c>
+      <c r="G134" t="str">
+        <f>VLOOKUP(A134,J:L,3,0)</f>
+        <v>E1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B135">
-        <v>3</v>
-      </c>
-      <c r="C135" t="str">
+        <v>4</v>
+      </c>
+      <c r="C135">
         <f>IF(MOD(SUM($B$1:B134),16)=0,SUM($B$1:B134)/16+1,"")</f>
-        <v/>
+        <v>27</v>
       </c>
       <c r="D135">
+        <f>ROUND(VLOOKUP(A135,J:K,2,0),0)</f>
+        <v>277</v>
+      </c>
+      <c r="E135">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+      <c r="F135" t="str">
         <f t="shared" si="6"/>
-        <v>75</v>
-      </c>
-      <c r="E135">
-        <f t="shared" si="7"/>
-        <v>277</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <v>0</v>
+        <v>{FREQUENCY/277,200},</v>
+      </c>
+      <c r="G135" t="str">
+        <f>VLOOKUP(A135,J:L,3,0)</f>
+        <v>D1#</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>26</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -3430,17 +4581,25 @@
         <v/>
       </c>
       <c r="D136">
+        <f>ROUND(VLOOKUP(A136,J:K,2,0),0)</f>
+        <v>294</v>
+      </c>
+      <c r="E136">
+        <f t="shared" ref="E136:E201" si="7">24000000*B136*0.125/60000</f>
+        <v>50</v>
+      </c>
+      <c r="F136" t="str">
         <f t="shared" si="6"/>
-        <v>25</v>
-      </c>
-      <c r="E136">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{FREQUENCY/294,50},</v>
+      </c>
+      <c r="G136" t="str">
+        <f>VLOOKUP(A136,J:L,3,0)</f>
+        <v>E1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -3450,17 +4609,25 @@
         <v/>
       </c>
       <c r="D137">
-        <f t="shared" si="6"/>
-        <v>25</v>
+        <f>ROUND(VLOOKUP(A137,J:K,2,0),0)</f>
+        <v>330</v>
       </c>
       <c r="E137">
         <f t="shared" si="7"/>
-        <v>208</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F137" t="str">
+        <f t="shared" si="6"/>
+        <v>{FREQUENCY/330,50},</v>
+      </c>
+      <c r="G137" t="str">
+        <f>VLOOKUP(A137,J:L,3,0)</f>
+        <v>F1#</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -3470,35 +4637,51 @@
         <v/>
       </c>
       <c r="D138">
-        <f t="shared" si="6"/>
-        <v>25</v>
+        <f>ROUND(VLOOKUP(A138,J:K,2,0),0)</f>
+        <v>294</v>
       </c>
       <c r="E138">
         <f t="shared" si="7"/>
-        <v>220</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F138" t="str">
+        <f t="shared" si="6"/>
+        <v>{FREQUENCY/294,50},</v>
+      </c>
+      <c r="G138" t="str">
+        <f>VLOOKUP(A138,J:L,3,0)</f>
+        <v>E1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B139">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C139" t="str">
-        <f>IF(MOD(SUM($B$1:B138),16)=0,SUM($B$1:B138)/16+1,"")</f>
+        <f>IF(MOD(SUM($B$1:B136),16)=0,SUM($B$1:B136)/16+1,"")</f>
         <v/>
       </c>
       <c r="D139">
-        <f t="shared" si="6"/>
-        <v>125</v>
+        <f>ROUND(VLOOKUP(A139,J:K,2,0),0)</f>
+        <v>277</v>
       </c>
       <c r="E139">
         <f t="shared" si="7"/>
-        <v>277</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+      <c r="F139" t="str">
+        <f t="shared" si="6"/>
+        <v>{FREQUENCY/277,450},</v>
+      </c>
+      <c r="G139" t="str">
+        <f>VLOOKUP(A139,J:L,3,0)</f>
+        <v>D1#</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>0</v>
       </c>
@@ -3507,20 +4690,28 @@
       </c>
       <c r="C140">
         <f>IF(MOD(SUM($B$1:B139),16)=0,SUM($B$1:B139)/16+1,"")</f>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D140">
-        <f t="shared" si="6"/>
-        <v>75</v>
+        <f>ROUND(VLOOKUP(A140,J:K,2,0),0)</f>
+        <v>0</v>
       </c>
       <c r="E140">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F140" t="str">
+        <f t="shared" si="6"/>
+        <v>{0,150},</v>
+      </c>
+      <c r="G140">
+        <f>VLOOKUP(A140,J:L,3,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -3530,17 +4721,25 @@
         <v/>
       </c>
       <c r="D141">
-        <f t="shared" si="6"/>
-        <v>25</v>
+        <f>ROUND(VLOOKUP(A141,J:K,2,0),0)</f>
+        <v>208</v>
       </c>
       <c r="E141">
         <f t="shared" si="7"/>
-        <v>208</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F141" t="str">
+        <f t="shared" si="6"/>
+        <v>{FREQUENCY/208,50},</v>
+      </c>
+      <c r="G141" t="str">
+        <f>VLOOKUP(A141,J:L,3,0)</f>
+        <v>A1#</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B142">
         <v>1</v>
@@ -3550,17 +4749,25 @@
         <v/>
       </c>
       <c r="D142">
-        <f t="shared" si="6"/>
-        <v>25</v>
+        <f>ROUND(VLOOKUP(A142,J:K,2,0),0)</f>
+        <v>220</v>
       </c>
       <c r="E142">
         <f t="shared" si="7"/>
-        <v>220</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F142" t="str">
+        <f t="shared" si="6"/>
+        <v>{FREQUENCY/220,50},</v>
+      </c>
+      <c r="G142" t="str">
+        <f>VLOOKUP(A142,J:L,3,0)</f>
+        <v>B1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B143">
         <v>3</v>
@@ -3570,15 +4777,23 @@
         <v/>
       </c>
       <c r="D143">
-        <f t="shared" si="6"/>
-        <v>75</v>
+        <f>ROUND(VLOOKUP(A143,J:K,2,0),0)</f>
+        <v>277</v>
       </c>
       <c r="E143">
         <f t="shared" si="7"/>
-        <v>294</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F143" t="str">
+        <f t="shared" si="6"/>
+        <v>{FREQUENCY/277,150},</v>
+      </c>
+      <c r="G143" t="str">
+        <f>VLOOKUP(A143,J:L,3,0)</f>
+        <v>D1#</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>0</v>
       </c>
@@ -3590,17 +4805,25 @@
         <v/>
       </c>
       <c r="D144">
-        <f t="shared" si="6"/>
-        <v>25</v>
+        <f>ROUND(VLOOKUP(A144,J:K,2,0),0)</f>
+        <v>0</v>
       </c>
       <c r="E144">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F144" t="str">
+        <f t="shared" si="6"/>
+        <v>{0,50},</v>
+      </c>
+      <c r="G144">
+        <f>VLOOKUP(A144,J:L,3,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -3610,17 +4833,25 @@
         <v/>
       </c>
       <c r="D145">
-        <f t="shared" si="6"/>
-        <v>25</v>
+        <f>ROUND(VLOOKUP(A145,J:K,2,0),0)</f>
+        <v>208</v>
       </c>
       <c r="E145">
         <f t="shared" si="7"/>
-        <v>208</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F145" t="str">
+        <f t="shared" si="6"/>
+        <v>{FREQUENCY/208,50},</v>
+      </c>
+      <c r="G145" t="str">
+        <f>VLOOKUP(A145,J:L,3,0)</f>
+        <v>A1#</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -3630,417 +4861,585 @@
         <v/>
       </c>
       <c r="D146">
-        <f t="shared" si="6"/>
-        <v>25</v>
+        <f>ROUND(VLOOKUP(A146,J:K,2,0),0)</f>
+        <v>220</v>
       </c>
       <c r="E146">
         <f t="shared" si="7"/>
-        <v>220</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F146" t="str">
+        <f t="shared" si="6"/>
+        <v>{FREQUENCY/220,50},</v>
+      </c>
+      <c r="G146" t="str">
+        <f>VLOOKUP(A146,J:L,3,0)</f>
+        <v>B1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B147">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C147" t="str">
         <f>IF(MOD(SUM($B$1:B146),16)=0,SUM($B$1:B146)/16+1,"")</f>
         <v/>
       </c>
       <c r="D147">
-        <f t="shared" si="6"/>
-        <v>75</v>
+        <f>ROUND(VLOOKUP(A147,J:K,2,0),0)</f>
+        <v>277</v>
       </c>
       <c r="E147">
         <f t="shared" si="7"/>
-        <v>294</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>1</v>
+        <v>250</v>
+      </c>
+      <c r="F147" t="str">
+        <f t="shared" si="6"/>
+        <v>{FREQUENCY/277,250},</v>
+      </c>
+      <c r="G147" t="str">
+        <f>VLOOKUP(A147,J:L,3,0)</f>
+        <v>D1#</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>0</v>
       </c>
       <c r="B148">
-        <v>2</v>
-      </c>
-      <c r="C148" t="str">
+        <v>3</v>
+      </c>
+      <c r="C148">
         <f>IF(MOD(SUM($B$1:B147),16)=0,SUM($B$1:B147)/16+1,"")</f>
-        <v/>
+        <v>29</v>
       </c>
       <c r="D148">
-        <f t="shared" si="6"/>
-        <v>50</v>
+        <f>ROUND(VLOOKUP(A148,J:K,2,0),0)</f>
+        <v>0</v>
       </c>
       <c r="E148">
         <f t="shared" si="7"/>
-        <v>294</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F148" t="str">
+        <f t="shared" si="6"/>
+        <v>{0,150},</v>
+      </c>
+      <c r="G148">
+        <f>VLOOKUP(A148,J:L,3,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B149">
-        <v>6</v>
-      </c>
-      <c r="C149">
+        <v>1</v>
+      </c>
+      <c r="C149" t="str">
         <f>IF(MOD(SUM($B$1:B148),16)=0,SUM($B$1:B148)/16+1,"")</f>
-        <v>30</v>
+        <v/>
       </c>
       <c r="D149">
-        <f t="shared" si="6"/>
-        <v>150</v>
+        <f>ROUND(VLOOKUP(A149,J:K,2,0),0)</f>
+        <v>208</v>
       </c>
       <c r="E149">
         <f t="shared" si="7"/>
-        <v>247</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F149" t="str">
+        <f t="shared" si="6"/>
+        <v>{FREQUENCY/208,50},</v>
+      </c>
+      <c r="G149" t="str">
+        <f>VLOOKUP(A149,J:L,3,0)</f>
+        <v>A1#</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C150" t="str">
         <f>IF(MOD(SUM($B$1:B149),16)=0,SUM($B$1:B149)/16+1,"")</f>
         <v/>
       </c>
       <c r="D150">
-        <f t="shared" si="6"/>
-        <v>50</v>
+        <f>ROUND(VLOOKUP(A150,J:K,2,0),0)</f>
+        <v>220</v>
       </c>
       <c r="E150">
         <f t="shared" si="7"/>
-        <v>208</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F150" t="str">
+        <f t="shared" si="6"/>
+        <v>{FREQUENCY/220,50},</v>
+      </c>
+      <c r="G150" t="str">
+        <f>VLOOKUP(A150,J:L,3,0)</f>
+        <v>B1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B151">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C151" t="str">
         <f>IF(MOD(SUM($B$1:B150),16)=0,SUM($B$1:B150)/16+1,"")</f>
         <v/>
       </c>
       <c r="D151">
-        <f t="shared" si="6"/>
-        <v>150</v>
+        <f>ROUND(VLOOKUP(A151,J:K,2,0),0)</f>
+        <v>294</v>
       </c>
       <c r="E151">
         <f t="shared" si="7"/>
-        <v>370</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>6</v>
+        <v>150</v>
+      </c>
+      <c r="F151" t="str">
+        <f t="shared" si="6"/>
+        <v>{FREQUENCY/294,150},</v>
+      </c>
+      <c r="G151" t="str">
+        <f>VLOOKUP(A151,J:L,3,0)</f>
+        <v>E1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>0</v>
       </c>
       <c r="B152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C152" t="str">
         <f>IF(MOD(SUM($B$1:B151),16)=0,SUM($B$1:B151)/16+1,"")</f>
         <v/>
       </c>
       <c r="D152">
-        <f t="shared" si="6"/>
-        <v>50</v>
+        <f>ROUND(VLOOKUP(A152,J:K,2,0),0)</f>
+        <v>0</v>
       </c>
       <c r="E152">
         <f t="shared" si="7"/>
-        <v>247</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F152" t="str">
+        <f t="shared" si="6"/>
+        <v>{0,50},</v>
+      </c>
+      <c r="G152">
+        <f>VLOOKUP(A152,J:L,3,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B153">
-        <v>16</v>
-      </c>
-      <c r="C153">
+        <v>1</v>
+      </c>
+      <c r="C153" t="str">
         <f>IF(MOD(SUM($B$1:B152),16)=0,SUM($B$1:B152)/16+1,"")</f>
-        <v>31</v>
+        <v/>
       </c>
       <c r="D153">
-        <f t="shared" si="6"/>
-        <v>400</v>
+        <f>ROUND(VLOOKUP(A153,J:K,2,0),0)</f>
+        <v>208</v>
       </c>
       <c r="E153">
         <f t="shared" si="7"/>
-        <v>277</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F153" t="str">
+        <f t="shared" si="6"/>
+        <v>{FREQUENCY/208,50},</v>
+      </c>
+      <c r="G153" t="str">
+        <f>VLOOKUP(A153,J:L,3,0)</f>
+        <v>A1#</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B154">
         <v>1</v>
       </c>
-      <c r="C154">
+      <c r="C154" t="str">
         <f>IF(MOD(SUM($B$1:B153),16)=0,SUM($B$1:B153)/16+1,"")</f>
-        <v>32</v>
+        <v/>
       </c>
       <c r="D154">
-        <f t="shared" si="6"/>
-        <v>25</v>
+        <f>ROUND(VLOOKUP(A154,J:K,2,0),0)</f>
+        <v>220</v>
       </c>
       <c r="E154">
         <f t="shared" si="7"/>
-        <v>220</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F154" t="str">
+        <f t="shared" si="6"/>
+        <v>{FREQUENCY/220,50},</v>
+      </c>
+      <c r="G154" t="str">
+        <f>VLOOKUP(A154,J:L,3,0)</f>
+        <v>B1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B155">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C155" t="str">
         <f>IF(MOD(SUM($B$1:B154),16)=0,SUM($B$1:B154)/16+1,"")</f>
         <v/>
       </c>
       <c r="D155">
-        <f t="shared" si="6"/>
-        <v>25</v>
+        <f>ROUND(VLOOKUP(A155,J:K,2,0),0)</f>
+        <v>294</v>
       </c>
       <c r="E155">
         <f t="shared" si="7"/>
-        <v>208</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F155" t="str">
+        <f t="shared" si="6"/>
+        <v>{FREQUENCY/294,150},</v>
+      </c>
+      <c r="G155" t="str">
+        <f>VLOOKUP(A155,J:L,3,0)</f>
+        <v>E1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B156">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C156" t="str">
         <f>IF(MOD(SUM($B$1:B155),16)=0,SUM($B$1:B155)/16+1,"")</f>
         <v/>
       </c>
       <c r="D156">
-        <f t="shared" si="6"/>
-        <v>200</v>
+        <f>ROUND(VLOOKUP(A156,J:K,2,0),0)</f>
+        <v>294</v>
       </c>
       <c r="E156">
         <f t="shared" si="7"/>
-        <v>220</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="F156" t="str">
+        <f t="shared" si="6"/>
+        <v>{FREQUENCY/294,100},</v>
+      </c>
+      <c r="G156" t="str">
+        <f>VLOOKUP(A156,J:L,3,0)</f>
+        <v>E1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B157">
-        <v>1</v>
-      </c>
-      <c r="C157" t="str">
+        <v>6</v>
+      </c>
+      <c r="C157">
         <f>IF(MOD(SUM($B$1:B156),16)=0,SUM($B$1:B156)/16+1,"")</f>
-        <v/>
+        <v>30</v>
       </c>
       <c r="D157">
-        <f t="shared" si="6"/>
-        <v>25</v>
+        <f>ROUND(VLOOKUP(A157,J:K,2,0),0)</f>
+        <v>247</v>
       </c>
       <c r="E157">
         <f t="shared" si="7"/>
-        <v>370</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+      <c r="F157" t="str">
+        <f t="shared" si="6"/>
+        <v>{FREQUENCY/247,300},</v>
+      </c>
+      <c r="G157" t="str">
+        <f>VLOOKUP(A157,J:L,3,0)</f>
+        <v>C1#</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C158" t="str">
         <f>IF(MOD(SUM($B$1:B157),16)=0,SUM($B$1:B157)/16+1,"")</f>
         <v/>
       </c>
       <c r="D158">
-        <f t="shared" si="6"/>
-        <v>25</v>
+        <f>ROUND(VLOOKUP(A158,J:K,2,0),0)</f>
+        <v>415</v>
       </c>
       <c r="E158">
         <f t="shared" si="7"/>
-        <v>208</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="F158" t="str">
+        <f t="shared" si="6"/>
+        <v>{FREQUENCY/415,100},</v>
+      </c>
+      <c r="G158" t="str">
+        <f>VLOOKUP(A158,J:L,3,0)</f>
+        <v>A2#</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B159">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C159" t="str">
         <f>IF(MOD(SUM($B$1:B158),16)=0,SUM($B$1:B158)/16+1,"")</f>
         <v/>
       </c>
       <c r="D159">
-        <f t="shared" si="6"/>
-        <v>25</v>
+        <f>ROUND(VLOOKUP(A159,J:K,2,0),0)</f>
+        <v>370</v>
       </c>
       <c r="E159">
         <f t="shared" si="7"/>
-        <v>220</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+      <c r="F159" t="str">
+        <f t="shared" si="6"/>
+        <v>{FREQUENCY/370,300},</v>
+      </c>
+      <c r="G159" t="str">
+        <f>VLOOKUP(A159,J:L,3,0)</f>
+        <v>G2#</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B160">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C160" t="str">
         <f>IF(MOD(SUM($B$1:B159),16)=0,SUM($B$1:B159)/16+1,"")</f>
         <v/>
       </c>
       <c r="D160">
-        <f t="shared" si="6"/>
-        <v>25</v>
+        <f>ROUND(VLOOKUP(A160,J:K,2,0),0)</f>
+        <v>247</v>
       </c>
       <c r="E160">
         <f t="shared" si="7"/>
-        <v>247</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="F160" t="str">
+        <f t="shared" si="6"/>
+        <v>{FREQUENCY/247,100},</v>
+      </c>
+      <c r="G160" t="str">
+        <f>VLOOKUP(A160,J:L,3,0)</f>
+        <v>C1#</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B161">
-        <v>1</v>
-      </c>
-      <c r="C161" t="str">
+        <v>16</v>
+      </c>
+      <c r="C161">
         <f>IF(MOD(SUM($B$1:B160),16)=0,SUM($B$1:B160)/16+1,"")</f>
-        <v/>
+        <v>31</v>
       </c>
       <c r="D161">
-        <f t="shared" si="6"/>
-        <v>25</v>
+        <f>ROUND(VLOOKUP(A161,J:K,2,0),0)</f>
+        <v>277</v>
       </c>
       <c r="E161">
         <f t="shared" si="7"/>
-        <v>220</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+        <v>800</v>
+      </c>
+      <c r="F161" t="str">
+        <f t="shared" si="6"/>
+        <v>{FREQUENCY/277,800},</v>
+      </c>
+      <c r="G161" t="str">
+        <f>VLOOKUP(A161,J:L,3,0)</f>
+        <v>D1#</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B162">
         <v>1</v>
       </c>
-      <c r="C162" t="str">
+      <c r="C162">
         <f>IF(MOD(SUM($B$1:B161),16)=0,SUM($B$1:B161)/16+1,"")</f>
-        <v/>
+        <v>32</v>
       </c>
       <c r="D162">
-        <f t="shared" si="6"/>
-        <v>25</v>
+        <f>ROUND(VLOOKUP(A162,J:K,2,0),0)</f>
+        <v>440</v>
       </c>
       <c r="E162">
         <f t="shared" si="7"/>
-        <v>208</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F162" t="str">
+        <f t="shared" si="6"/>
+        <v>{FREQUENCY/440,50},</v>
+      </c>
+      <c r="G162" t="str">
+        <f>VLOOKUP(A162,J:L,3,0)</f>
+        <v>B2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B163">
         <v>1</v>
       </c>
-      <c r="C163">
+      <c r="C163" t="str">
         <f>IF(MOD(SUM($B$1:B162),16)=0,SUM($B$1:B162)/16+1,"")</f>
-        <v>33</v>
+        <v/>
       </c>
       <c r="D163">
-        <f t="shared" si="6"/>
-        <v>25</v>
+        <f>ROUND(VLOOKUP(A163,J:K,2,0),0)</f>
+        <v>415</v>
       </c>
       <c r="E163">
         <f t="shared" si="7"/>
-        <v>220</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F163" t="str">
+        <f t="shared" si="6"/>
+        <v>{FREQUENCY/415,50},</v>
+      </c>
+      <c r="G163" t="str">
+        <f>VLOOKUP(A163,J:L,3,0)</f>
+        <v>A2#</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B164">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C164" t="str">
         <f>IF(MOD(SUM($B$1:B163),16)=0,SUM($B$1:B163)/16+1,"")</f>
         <v/>
       </c>
       <c r="D164">
-        <f t="shared" si="6"/>
-        <v>25</v>
+        <f>ROUND(VLOOKUP(A164,J:K,2,0),0)</f>
+        <v>440</v>
       </c>
       <c r="E164">
         <f t="shared" si="7"/>
-        <v>208</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+      <c r="F164" t="str">
+        <f t="shared" si="6"/>
+        <v>{FREQUENCY/440,400},</v>
+      </c>
+      <c r="G164" t="str">
+        <f>VLOOKUP(A164,J:L,3,0)</f>
+        <v>B2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B165">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C165" t="str">
         <f>IF(MOD(SUM($B$1:B164),16)=0,SUM($B$1:B164)/16+1,"")</f>
         <v/>
       </c>
       <c r="D165">
-        <f t="shared" si="6"/>
-        <v>350</v>
+        <f>ROUND(VLOOKUP(A165,J:K,2,0),0)</f>
+        <v>370</v>
       </c>
       <c r="E165">
         <f t="shared" si="7"/>
-        <v>220</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F165" t="str">
+        <f t="shared" si="6"/>
+        <v>{FREQUENCY/370,50},</v>
+      </c>
+      <c r="G165" t="str">
+        <f>VLOOKUP(A165,J:L,3,0)</f>
+        <v>G2#</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B166">
         <v>1</v>
       </c>
-      <c r="C166">
+      <c r="C166" t="str">
         <f>IF(MOD(SUM($B$1:B165),16)=0,SUM($B$1:B165)/16+1,"")</f>
-        <v>34</v>
+        <v/>
       </c>
       <c r="D166">
-        <f t="shared" si="6"/>
-        <v>25</v>
+        <f>ROUND(VLOOKUP(A166,J:K,2,0),0)</f>
+        <v>415</v>
       </c>
       <c r="E166">
         <f t="shared" si="7"/>
-        <v>208</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F166" t="str">
+        <f t="shared" si="6"/>
+        <v>{FREQUENCY/415,50},</v>
+      </c>
+      <c r="G166" t="str">
+        <f>VLOOKUP(A166,J:L,3,0)</f>
+        <v>A2#</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B167">
         <v>1</v>
@@ -4050,37 +5449,53 @@
         <v/>
       </c>
       <c r="D167">
-        <f t="shared" si="6"/>
-        <v>25</v>
+        <f>ROUND(VLOOKUP(A167,J:K,2,0),0)</f>
+        <v>440</v>
       </c>
       <c r="E167">
         <f t="shared" si="7"/>
-        <v>370</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F167" t="str">
+        <f t="shared" si="6"/>
+        <v>{FREQUENCY/440,50},</v>
+      </c>
+      <c r="G167" t="str">
+        <f>VLOOKUP(A167,J:L,3,0)</f>
+        <v>B2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B168">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C168" t="str">
         <f>IF(MOD(SUM($B$1:B167),16)=0,SUM($B$1:B167)/16+1,"")</f>
         <v/>
       </c>
       <c r="D168">
-        <f t="shared" si="6"/>
-        <v>200</v>
+        <f>ROUND(VLOOKUP(A168,J:K,2,0),0)</f>
+        <v>494</v>
       </c>
       <c r="E168">
         <f t="shared" si="7"/>
-        <v>208</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F168" t="str">
+        <f t="shared" si="6"/>
+        <v>{FREQUENCY/494,50},</v>
+      </c>
+      <c r="G168" t="str">
+        <f>VLOOKUP(A168,J:L,3,0)</f>
+        <v>C2#</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -4090,17 +5505,25 @@
         <v/>
       </c>
       <c r="D169">
-        <f t="shared" si="6"/>
-        <v>25</v>
+        <f>ROUND(VLOOKUP(A169,J:K,2,0),0)</f>
+        <v>440</v>
       </c>
       <c r="E169">
         <f t="shared" si="7"/>
-        <v>330</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F169" t="str">
+        <f t="shared" si="6"/>
+        <v>{FREQUENCY/440,50},</v>
+      </c>
+      <c r="G169" t="str">
+        <f>VLOOKUP(A169,J:L,3,0)</f>
+        <v>B2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B170">
         <v>1</v>
@@ -4110,37 +5533,53 @@
         <v/>
       </c>
       <c r="D170">
-        <f t="shared" si="6"/>
-        <v>25</v>
+        <f>ROUND(VLOOKUP(A170,J:K,2,0),0)</f>
+        <v>415</v>
       </c>
       <c r="E170">
         <f t="shared" si="7"/>
-        <v>370</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F170" t="str">
+        <f t="shared" si="6"/>
+        <v>{FREQUENCY/415,50},</v>
+      </c>
+      <c r="G170" t="str">
+        <f>VLOOKUP(A170,J:L,3,0)</f>
+        <v>A2#</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B171">
         <v>1</v>
       </c>
-      <c r="C171" t="str">
+      <c r="C171">
         <f>IF(MOD(SUM($B$1:B170),16)=0,SUM($B$1:B170)/16+1,"")</f>
-        <v/>
+        <v>33</v>
       </c>
       <c r="D171">
-        <f t="shared" si="6"/>
-        <v>25</v>
+        <f>ROUND(VLOOKUP(A171,J:K,2,0),0)</f>
+        <v>440</v>
       </c>
       <c r="E171">
         <f t="shared" si="7"/>
-        <v>208</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F171" t="str">
+        <f t="shared" si="6"/>
+        <v>{FREQUENCY/440,50},</v>
+      </c>
+      <c r="G171" t="str">
+        <f>VLOOKUP(A171,J:L,3,0)</f>
+        <v>B2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B172">
         <v>1</v>
@@ -4150,137 +5589,193 @@
         <v/>
       </c>
       <c r="D172">
-        <f t="shared" si="6"/>
-        <v>25</v>
+        <f>ROUND(VLOOKUP(A172,J:K,2,0),0)</f>
+        <v>415</v>
       </c>
       <c r="E172">
         <f t="shared" si="7"/>
-        <v>220</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F172" t="str">
+        <f t="shared" si="6"/>
+        <v>{FREQUENCY/415,50},</v>
+      </c>
+      <c r="G172" t="str">
+        <f>VLOOKUP(A172,J:L,3,0)</f>
+        <v>A2#</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B173">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C173" t="str">
         <f>IF(MOD(SUM($B$1:B172),16)=0,SUM($B$1:B172)/16+1,"")</f>
         <v/>
       </c>
       <c r="D173">
-        <f t="shared" si="6"/>
-        <v>25</v>
+        <f>ROUND(VLOOKUP(A173,J:K,2,0),0)</f>
+        <v>440</v>
       </c>
       <c r="E173">
         <f t="shared" si="7"/>
-        <v>208</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+        <v>700</v>
+      </c>
+      <c r="F173" t="str">
+        <f t="shared" si="6"/>
+        <v>{FREQUENCY/440,700},</v>
+      </c>
+      <c r="G173" t="str">
+        <f>VLOOKUP(A173,J:L,3,0)</f>
+        <v>B2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B174">
         <v>1</v>
       </c>
-      <c r="C174" t="str">
+      <c r="C174">
         <f>IF(MOD(SUM($B$1:B173),16)=0,SUM($B$1:B173)/16+1,"")</f>
-        <v/>
+        <v>34</v>
       </c>
       <c r="D174">
-        <f t="shared" si="6"/>
-        <v>25</v>
+        <f>ROUND(VLOOKUP(A174,J:K,2,0),0)</f>
+        <v>415</v>
       </c>
       <c r="E174">
         <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="F174" t="str">
+        <f t="shared" si="6"/>
+        <v>{FREQUENCY/415,50},</v>
+      </c>
+      <c r="G174" t="str">
+        <f>VLOOKUP(A174,J:L,3,0)</f>
+        <v>A2#</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>23</v>
+      </c>
+      <c r="B175">
+        <v>1</v>
+      </c>
+      <c r="C175" t="str">
+        <f>IF(MOD(SUM($B$1:B174),16)=0,SUM($B$1:B174)/16+1,"")</f>
+        <v/>
+      </c>
+      <c r="D175">
+        <f>ROUND(VLOOKUP(A175,J:K,2,0),0)</f>
         <v>370</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>9</v>
-      </c>
-      <c r="B175">
-        <v>1</v>
-      </c>
-      <c r="C175">
-        <f>IF(MOD(SUM($B$1:B174),16)=0,SUM($B$1:B174)/16+1,"")</f>
-        <v>35</v>
-      </c>
-      <c r="D175">
-        <f t="shared" si="6"/>
-        <v>25</v>
       </c>
       <c r="E175">
         <f t="shared" si="7"/>
-        <v>208</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F175" t="str">
+        <f t="shared" si="6"/>
+        <v>{FREQUENCY/370,50},</v>
+      </c>
+      <c r="G175" t="str">
+        <f>VLOOKUP(A175,J:L,3,0)</f>
+        <v>G2#</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B176">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C176" t="str">
         <f>IF(MOD(SUM($B$1:B175),16)=0,SUM($B$1:B175)/16+1,"")</f>
         <v/>
       </c>
       <c r="D176">
-        <f t="shared" si="6"/>
-        <v>25</v>
+        <f>ROUND(VLOOKUP(A176,J:K,2,0),0)</f>
+        <v>415</v>
       </c>
       <c r="E176">
         <f t="shared" si="7"/>
-        <v>370</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+      <c r="F176" t="str">
+        <f t="shared" si="6"/>
+        <v>{FREQUENCY/415,400},</v>
+      </c>
+      <c r="G176" t="str">
+        <f>VLOOKUP(A176,J:L,3,0)</f>
+        <v>A2#</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B177">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C177" t="str">
         <f>IF(MOD(SUM($B$1:B176),16)=0,SUM($B$1:B176)/16+1,"")</f>
         <v/>
       </c>
       <c r="D177">
-        <f t="shared" si="6"/>
-        <v>350</v>
+        <f>ROUND(VLOOKUP(A177,J:K,2,0),0)</f>
+        <v>330</v>
       </c>
       <c r="E177">
         <f t="shared" si="7"/>
-        <v>349</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F177" t="str">
+        <f t="shared" si="6"/>
+        <v>{FREQUENCY/330,50},</v>
+      </c>
+      <c r="G177" t="str">
+        <f>VLOOKUP(A177,J:L,3,0)</f>
+        <v>F1#</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B178">
         <v>1</v>
       </c>
-      <c r="C178">
+      <c r="C178" t="str">
         <f>IF(MOD(SUM($B$1:B177),16)=0,SUM($B$1:B177)/16+1,"")</f>
-        <v>36</v>
+        <v/>
       </c>
       <c r="D178">
-        <f t="shared" si="6"/>
-        <v>25</v>
+        <f>ROUND(VLOOKUP(A178,J:K,2,0),0)</f>
+        <v>370</v>
       </c>
       <c r="E178">
         <f t="shared" si="7"/>
-        <v>220</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F178" t="str">
+        <f t="shared" si="6"/>
+        <v>{FREQUENCY/370,50},</v>
+      </c>
+      <c r="G178" t="str">
+        <f>VLOOKUP(A178,J:L,3,0)</f>
+        <v>G2#</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B179">
         <v>1</v>
@@ -4290,37 +5785,53 @@
         <v/>
       </c>
       <c r="D179">
-        <f t="shared" si="6"/>
-        <v>25</v>
+        <f>ROUND(VLOOKUP(A179,J:K,2,0),0)</f>
+        <v>415</v>
       </c>
       <c r="E179">
         <f t="shared" si="7"/>
-        <v>208</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F179" t="str">
+        <f t="shared" si="6"/>
+        <v>{FREQUENCY/415,50},</v>
+      </c>
+      <c r="G179" t="str">
+        <f>VLOOKUP(A179,J:L,3,0)</f>
+        <v>A2#</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B180">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C180" t="str">
         <f>IF(MOD(SUM($B$1:B179),16)=0,SUM($B$1:B179)/16+1,"")</f>
         <v/>
       </c>
       <c r="D180">
-        <f t="shared" si="6"/>
-        <v>200</v>
+        <f>ROUND(VLOOKUP(A180,J:K,2,0),0)</f>
+        <v>440</v>
       </c>
       <c r="E180">
         <f t="shared" si="7"/>
-        <v>220</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F180" t="str">
+        <f t="shared" si="6"/>
+        <v>{FREQUENCY/440,50},</v>
+      </c>
+      <c r="G180" t="str">
+        <f>VLOOKUP(A180,J:L,3,0)</f>
+        <v>B2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B181">
         <v>1</v>
@@ -4330,17 +5841,25 @@
         <v/>
       </c>
       <c r="D181">
-        <f t="shared" si="6"/>
-        <v>25</v>
+        <f>ROUND(VLOOKUP(A181,J:K,2,0),0)</f>
+        <v>415</v>
       </c>
       <c r="E181">
         <f t="shared" si="7"/>
-        <v>370</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F181" t="str">
+        <f t="shared" si="6"/>
+        <v>{FREQUENCY/415,50},</v>
+      </c>
+      <c r="G181" t="str">
+        <f>VLOOKUP(A181,J:L,3,0)</f>
+        <v>A2#</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B182">
         <v>1</v>
@@ -4350,37 +5869,53 @@
         <v/>
       </c>
       <c r="D182">
-        <f t="shared" si="6"/>
-        <v>25</v>
+        <f>ROUND(VLOOKUP(A182,J:K,2,0),0)</f>
+        <v>370</v>
       </c>
       <c r="E182">
         <f t="shared" si="7"/>
-        <v>208</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F182" t="str">
+        <f t="shared" si="6"/>
+        <v>{FREQUENCY/370,50},</v>
+      </c>
+      <c r="G182" t="str">
+        <f>VLOOKUP(A182,J:L,3,0)</f>
+        <v>G2#</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B183">
         <v>1</v>
       </c>
-      <c r="C183" t="str">
+      <c r="C183">
         <f>IF(MOD(SUM($B$1:B182),16)=0,SUM($B$1:B182)/16+1,"")</f>
-        <v/>
+        <v>35</v>
       </c>
       <c r="D183">
-        <f t="shared" si="6"/>
-        <v>25</v>
+        <f>ROUND(VLOOKUP(A183,J:K,2,0),0)</f>
+        <v>415</v>
       </c>
       <c r="E183">
         <f t="shared" si="7"/>
-        <v>220</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F183" t="str">
+        <f t="shared" si="6"/>
+        <v>{FREQUENCY/415,50},</v>
+      </c>
+      <c r="G183" t="str">
+        <f>VLOOKUP(A183,J:L,3,0)</f>
+        <v>A2#</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B184">
         <v>1</v>
@@ -4390,137 +5925,193 @@
         <v/>
       </c>
       <c r="D184">
-        <f t="shared" si="6"/>
-        <v>25</v>
+        <f>ROUND(VLOOKUP(A184,J:K,2,0),0)</f>
+        <v>370</v>
       </c>
       <c r="E184">
         <f t="shared" si="7"/>
-        <v>247</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F184" t="str">
+        <f t="shared" si="6"/>
+        <v>{FREQUENCY/370,50},</v>
+      </c>
+      <c r="G184" t="str">
+        <f>VLOOKUP(A184,J:L,3,0)</f>
+        <v>G2#</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B185">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C185" t="str">
         <f>IF(MOD(SUM($B$1:B184),16)=0,SUM($B$1:B184)/16+1,"")</f>
         <v/>
       </c>
       <c r="D185">
-        <f t="shared" si="6"/>
-        <v>25</v>
+        <f>ROUND(VLOOKUP(A185,J:K,2,0),0)</f>
+        <v>349</v>
       </c>
       <c r="E185">
         <f t="shared" si="7"/>
-        <v>220</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+        <v>700</v>
+      </c>
+      <c r="F185" t="str">
+        <f t="shared" si="6"/>
+        <v>{FREQUENCY/349,700},</v>
+      </c>
+      <c r="G185" t="str">
+        <f>VLOOKUP(A185,J:L,3,0)</f>
+        <v>G2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B186">
         <v>1</v>
       </c>
-      <c r="C186" t="str">
+      <c r="C186">
         <f>IF(MOD(SUM($B$1:B185),16)=0,SUM($B$1:B185)/16+1,"")</f>
-        <v/>
+        <v>36</v>
       </c>
       <c r="D186">
-        <f t="shared" si="6"/>
-        <v>25</v>
+        <f>ROUND(VLOOKUP(A186,J:K,2,0),0)</f>
+        <v>440</v>
       </c>
       <c r="E186">
         <f t="shared" si="7"/>
-        <v>208</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F186" t="str">
+        <f t="shared" si="6"/>
+        <v>{FREQUENCY/440,50},</v>
+      </c>
+      <c r="G186" t="str">
+        <f>VLOOKUP(A186,J:L,3,0)</f>
+        <v>B2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B187">
         <v>1</v>
       </c>
-      <c r="C187">
+      <c r="C187" t="str">
         <f>IF(MOD(SUM($B$1:B186),16)=0,SUM($B$1:B186)/16+1,"")</f>
-        <v>37</v>
+        <v/>
       </c>
       <c r="D187">
-        <f t="shared" si="6"/>
-        <v>25</v>
+        <f>ROUND(VLOOKUP(A187,J:K,2,0),0)</f>
+        <v>415</v>
       </c>
       <c r="E187">
         <f t="shared" si="7"/>
-        <v>220</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F187" t="str">
+        <f t="shared" si="6"/>
+        <v>{FREQUENCY/415,50},</v>
+      </c>
+      <c r="G187" t="str">
+        <f>VLOOKUP(A187,J:L,3,0)</f>
+        <v>A2#</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B188">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C188" t="str">
         <f>IF(MOD(SUM($B$1:B187),16)=0,SUM($B$1:B187)/16+1,"")</f>
         <v/>
       </c>
       <c r="D188">
-        <f t="shared" si="6"/>
-        <v>25</v>
+        <f>ROUND(VLOOKUP(A188,J:K,2,0),0)</f>
+        <v>440</v>
       </c>
       <c r="E188">
         <f t="shared" si="7"/>
-        <v>208</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+      <c r="F188" t="str">
+        <f t="shared" si="6"/>
+        <v>{FREQUENCY/440,400},</v>
+      </c>
+      <c r="G188" t="str">
+        <f>VLOOKUP(A188,J:L,3,0)</f>
+        <v>B2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B189">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C189" t="str">
         <f>IF(MOD(SUM($B$1:B188),16)=0,SUM($B$1:B188)/16+1,"")</f>
         <v/>
       </c>
       <c r="D189">
-        <f t="shared" si="6"/>
-        <v>350</v>
+        <f>ROUND(VLOOKUP(A189,J:K,2,0),0)</f>
+        <v>370</v>
       </c>
       <c r="E189">
         <f t="shared" si="7"/>
-        <v>220</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F189" t="str">
+        <f t="shared" si="6"/>
+        <v>{FREQUENCY/370,50},</v>
+      </c>
+      <c r="G189" t="str">
+        <f>VLOOKUP(A189,J:L,3,0)</f>
+        <v>G2#</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B190">
         <v>1</v>
       </c>
-      <c r="C190">
+      <c r="C190" t="str">
         <f>IF(MOD(SUM($B$1:B189),16)=0,SUM($B$1:B189)/16+1,"")</f>
-        <v>38</v>
+        <v/>
       </c>
       <c r="D190">
-        <f t="shared" si="6"/>
-        <v>25</v>
+        <f>ROUND(VLOOKUP(A190,J:K,2,0),0)</f>
+        <v>415</v>
       </c>
       <c r="E190">
         <f t="shared" si="7"/>
-        <v>247</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F190" t="str">
+        <f t="shared" si="6"/>
+        <v>{FREQUENCY/415,50},</v>
+      </c>
+      <c r="G190" t="str">
+        <f>VLOOKUP(A190,J:L,3,0)</f>
+        <v>A2#</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B191">
         <v>1</v>
@@ -4530,37 +6121,53 @@
         <v/>
       </c>
       <c r="D191">
-        <f t="shared" si="6"/>
-        <v>25</v>
+        <f>ROUND(VLOOKUP(A191,J:K,2,0),0)</f>
+        <v>440</v>
       </c>
       <c r="E191">
         <f t="shared" si="7"/>
-        <v>220</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F191" t="str">
+        <f t="shared" si="6"/>
+        <v>{FREQUENCY/440,50},</v>
+      </c>
+      <c r="G191" t="str">
+        <f>VLOOKUP(A191,J:L,3,0)</f>
+        <v>B2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B192">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C192" t="str">
         <f>IF(MOD(SUM($B$1:B191),16)=0,SUM($B$1:B191)/16+1,"")</f>
         <v/>
       </c>
       <c r="D192">
-        <f t="shared" si="6"/>
-        <v>200</v>
+        <f>ROUND(VLOOKUP(A192,J:K,2,0),0)</f>
+        <v>494</v>
       </c>
       <c r="E192">
         <f t="shared" si="7"/>
-        <v>247</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F192" t="str">
+        <f t="shared" si="6"/>
+        <v>{FREQUENCY/494,50},</v>
+      </c>
+      <c r="G192" t="str">
+        <f>VLOOKUP(A192,J:L,3,0)</f>
+        <v>C2#</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B193">
         <v>1</v>
@@ -4570,17 +6177,25 @@
         <v/>
       </c>
       <c r="D193">
-        <f t="shared" si="6"/>
-        <v>25</v>
+        <f>ROUND(VLOOKUP(A193,J:K,2,0),0)</f>
+        <v>440</v>
       </c>
       <c r="E193">
         <f t="shared" si="7"/>
-        <v>208</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F193" t="str">
+        <f t="shared" si="6"/>
+        <v>{FREQUENCY/440,50},</v>
+      </c>
+      <c r="G193" t="str">
+        <f>VLOOKUP(A193,J:L,3,0)</f>
+        <v>B2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B194">
         <v>1</v>
@@ -4590,37 +6205,53 @@
         <v/>
       </c>
       <c r="D194">
-        <f t="shared" ref="D194:D230" si="8">24000000*B194*1/32/30000</f>
-        <v>25</v>
+        <f>ROUND(VLOOKUP(A194,J:K,2,0),0)</f>
+        <v>415</v>
       </c>
       <c r="E194">
-        <f t="shared" ref="E194:E230" si="9">ROUND(VLOOKUP(A194,H:J,3,0),0)</f>
-        <v>220</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="F194" t="str">
+        <f t="shared" si="6"/>
+        <v>{FREQUENCY/415,50},</v>
+      </c>
+      <c r="G194" t="str">
+        <f>VLOOKUP(A194,J:L,3,0)</f>
+        <v>A2#</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B195">
         <v>1</v>
       </c>
-      <c r="C195" t="str">
+      <c r="C195">
         <f>IF(MOD(SUM($B$1:B194),16)=0,SUM($B$1:B194)/16+1,"")</f>
-        <v/>
+        <v>37</v>
       </c>
       <c r="D195">
-        <f t="shared" si="8"/>
-        <v>25</v>
+        <f>ROUND(VLOOKUP(A195,J:K,2,0),0)</f>
+        <v>440</v>
       </c>
       <c r="E195">
-        <f t="shared" si="9"/>
-        <v>247</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="F195" t="str">
+        <f t="shared" si="6"/>
+        <v>{FREQUENCY/440,50},</v>
+      </c>
+      <c r="G195" t="str">
+        <f>VLOOKUP(A195,J:L,3,0)</f>
+        <v>B2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B196">
         <v>1</v>
@@ -4630,137 +6261,193 @@
         <v/>
       </c>
       <c r="D196">
-        <f t="shared" si="8"/>
-        <v>25</v>
+        <f>ROUND(VLOOKUP(A196,J:K,2,0),0)</f>
+        <v>415</v>
       </c>
       <c r="E196">
-        <f t="shared" si="9"/>
-        <v>277</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="F196" t="str">
+        <f t="shared" ref="F196:F238" si="8">"{"&amp;IF(D196&gt;0,"FREQUENCY/","")&amp;D196&amp;","&amp;E196&amp;"},"</f>
+        <v>{FREQUENCY/415,50},</v>
+      </c>
+      <c r="G196" t="str">
+        <f>VLOOKUP(A196,J:L,3,0)</f>
+        <v>A2#</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B197">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C197" t="str">
         <f>IF(MOD(SUM($B$1:B196),16)=0,SUM($B$1:B196)/16+1,"")</f>
         <v/>
       </c>
       <c r="D197">
+        <f>ROUND(VLOOKUP(A197,J:K,2,0),0)</f>
+        <v>440</v>
+      </c>
+      <c r="E197">
+        <f t="shared" si="7"/>
+        <v>700</v>
+      </c>
+      <c r="F197" t="str">
         <f t="shared" si="8"/>
-        <v>25</v>
-      </c>
-      <c r="E197">
-        <f t="shared" si="9"/>
-        <v>294</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{FREQUENCY/440,700},</v>
+      </c>
+      <c r="G197" t="str">
+        <f>VLOOKUP(A197,J:L,3,0)</f>
+        <v>B2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B198">
         <v>1</v>
       </c>
-      <c r="C198" t="str">
+      <c r="C198">
         <f>IF(MOD(SUM($B$1:B197),16)=0,SUM($B$1:B197)/16+1,"")</f>
-        <v/>
+        <v>38</v>
       </c>
       <c r="D198">
+        <f>ROUND(VLOOKUP(A198,J:K,2,0),0)</f>
+        <v>494</v>
+      </c>
+      <c r="E198">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="F198" t="str">
         <f t="shared" si="8"/>
-        <v>25</v>
-      </c>
-      <c r="E198">
-        <f t="shared" si="9"/>
-        <v>330</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{FREQUENCY/494,50},</v>
+      </c>
+      <c r="G198" t="str">
+        <f>VLOOKUP(A198,J:L,3,0)</f>
+        <v>C2#</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B199">
         <v>1</v>
       </c>
-      <c r="C199">
+      <c r="C199" t="str">
         <f>IF(MOD(SUM($B$1:B198),16)=0,SUM($B$1:B198)/16+1,"")</f>
-        <v>39</v>
+        <v/>
       </c>
       <c r="D199">
+        <f>ROUND(VLOOKUP(A199,J:K,2,0),0)</f>
+        <v>440</v>
+      </c>
+      <c r="E199">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="F199" t="str">
         <f t="shared" si="8"/>
-        <v>25</v>
-      </c>
-      <c r="E199">
-        <f t="shared" si="9"/>
-        <v>277</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{FREQUENCY/440,50},</v>
+      </c>
+      <c r="G199" t="str">
+        <f>VLOOKUP(A199,J:L,3,0)</f>
+        <v>B2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B200">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C200" t="str">
         <f>IF(MOD(SUM($B$1:B199),16)=0,SUM($B$1:B199)/16+1,"")</f>
         <v/>
       </c>
       <c r="D200">
+        <f>ROUND(VLOOKUP(A200,J:K,2,0),0)</f>
+        <v>494</v>
+      </c>
+      <c r="E200">
+        <f t="shared" si="7"/>
+        <v>400</v>
+      </c>
+      <c r="F200" t="str">
         <f t="shared" si="8"/>
-        <v>25</v>
-      </c>
-      <c r="E200">
-        <f t="shared" si="9"/>
-        <v>247</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{FREQUENCY/494,400},</v>
+      </c>
+      <c r="G200" t="str">
+        <f>VLOOKUP(A200,J:L,3,0)</f>
+        <v>C2#</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B201">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C201" t="str">
         <f>IF(MOD(SUM($B$1:B200),16)=0,SUM($B$1:B200)/16+1,"")</f>
         <v/>
       </c>
       <c r="D201">
+        <f>ROUND(VLOOKUP(A201,J:K,2,0),0)</f>
+        <v>415</v>
+      </c>
+      <c r="E201">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="F201" t="str">
         <f t="shared" si="8"/>
-        <v>350</v>
-      </c>
-      <c r="E201">
-        <f t="shared" si="9"/>
-        <v>277</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202">
-        <v>0</v>
+        <v>{FREQUENCY/415,50},</v>
+      </c>
+      <c r="G201" t="str">
+        <f>VLOOKUP(A201,J:L,3,0)</f>
+        <v>A2#</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>20</v>
       </c>
       <c r="B202">
-        <v>2</v>
-      </c>
-      <c r="C202">
+        <v>1</v>
+      </c>
+      <c r="C202" t="str">
         <f>IF(MOD(SUM($B$1:B201),16)=0,SUM($B$1:B201)/16+1,"")</f>
-        <v>40</v>
+        <v/>
       </c>
       <c r="D202">
+        <f>ROUND(VLOOKUP(A202,J:K,2,0),0)</f>
+        <v>440</v>
+      </c>
+      <c r="E202">
+        <f t="shared" ref="E202:E238" si="9">24000000*B202*0.125/60000</f>
+        <v>50</v>
+      </c>
+      <c r="F202" t="str">
         <f t="shared" si="8"/>
-        <v>50</v>
-      </c>
-      <c r="E202">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{FREQUENCY/440,50},</v>
+      </c>
+      <c r="G202" t="str">
+        <f>VLOOKUP(A202,J:L,3,0)</f>
+        <v>B2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B203">
         <v>1</v>
@@ -4770,135 +6457,191 @@
         <v/>
       </c>
       <c r="D203">
-        <f t="shared" si="8"/>
-        <v>25</v>
+        <f>ROUND(VLOOKUP(A203,J:K,2,0),0)</f>
+        <v>494</v>
       </c>
       <c r="E203">
         <f t="shared" si="9"/>
-        <v>220</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F203" t="str">
+        <f t="shared" si="8"/>
+        <v>{FREQUENCY/494,50},</v>
+      </c>
+      <c r="G203" t="str">
+        <f>VLOOKUP(A203,J:L,3,0)</f>
+        <v>C2#</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B204">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C204" t="str">
         <f>IF(MOD(SUM($B$1:B203),16)=0,SUM($B$1:B203)/16+1,"")</f>
         <v/>
       </c>
       <c r="D204">
-        <f t="shared" si="8"/>
-        <v>75</v>
+        <f>ROUND(VLOOKUP(A204,J:K,2,0),0)</f>
+        <v>554</v>
       </c>
       <c r="E204">
         <f t="shared" si="9"/>
-        <v>208</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F204" t="str">
+        <f t="shared" si="8"/>
+        <v>{FREQUENCY/554,50},</v>
+      </c>
+      <c r="G204" t="str">
+        <f>VLOOKUP(A204,J:L,3,0)</f>
+        <v>D2#</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B205">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C205" t="str">
         <f>IF(MOD(SUM($B$1:B204),16)=0,SUM($B$1:B204)/16+1,"")</f>
         <v/>
       </c>
       <c r="D205">
-        <f t="shared" si="8"/>
-        <v>50</v>
+        <f>ROUND(VLOOKUP(A205,J:K,2,0),0)</f>
+        <v>587</v>
       </c>
       <c r="E205">
         <f t="shared" si="9"/>
-        <v>220</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="F205" t="str">
+        <f t="shared" si="8"/>
+        <v>{FREQUENCY/587,50},</v>
+      </c>
+      <c r="G205" t="str">
+        <f>VLOOKUP(A205,J:L,3,0)</f>
+        <v>E2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>29</v>
       </c>
       <c r="B206">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C206" t="str">
         <f>IF(MOD(SUM($B$1:B205),16)=0,SUM($B$1:B205)/16+1,"")</f>
         <v/>
       </c>
       <c r="D206">
-        <f t="shared" si="8"/>
-        <v>50</v>
+        <f>ROUND(VLOOKUP(A206,J:K,2,0),0)</f>
+        <v>659</v>
       </c>
       <c r="E206">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F206" t="str">
+        <f t="shared" si="8"/>
+        <v>{FREQUENCY/659,50},</v>
+      </c>
+      <c r="G206" t="str">
+        <f>VLOOKUP(A206,J:L,3,0)</f>
+        <v>F2#</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B207">
         <v>1</v>
       </c>
-      <c r="C207" t="str">
+      <c r="C207">
         <f>IF(MOD(SUM($B$1:B206),16)=0,SUM($B$1:B206)/16+1,"")</f>
-        <v/>
+        <v>39</v>
       </c>
       <c r="D207">
-        <f t="shared" si="8"/>
-        <v>25</v>
+        <f>ROUND(VLOOKUP(A207,J:K,2,0),0)</f>
+        <v>554</v>
       </c>
       <c r="E207">
         <f t="shared" si="9"/>
-        <v>220</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F207" t="str">
+        <f t="shared" si="8"/>
+        <v>{FREQUENCY/554,50},</v>
+      </c>
+      <c r="G207" t="str">
+        <f>VLOOKUP(A207,J:L,3,0)</f>
+        <v>D2#</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B208">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C208" t="str">
         <f>IF(MOD(SUM($B$1:B207),16)=0,SUM($B$1:B207)/16+1,"")</f>
         <v/>
       </c>
       <c r="D208">
-        <f t="shared" si="8"/>
-        <v>75</v>
+        <f>ROUND(VLOOKUP(A208,J:K,2,0),0)</f>
+        <v>494</v>
       </c>
       <c r="E208">
         <f t="shared" si="9"/>
-        <v>208</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F208" t="str">
+        <f t="shared" si="8"/>
+        <v>{FREQUENCY/494,50},</v>
+      </c>
+      <c r="G208" t="str">
+        <f>VLOOKUP(A208,J:L,3,0)</f>
+        <v>C2#</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B209">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C209" t="str">
         <f>IF(MOD(SUM($B$1:B208),16)=0,SUM($B$1:B208)/16+1,"")</f>
         <v/>
       </c>
       <c r="D209">
-        <f t="shared" si="8"/>
-        <v>50</v>
+        <f>ROUND(VLOOKUP(A209,J:K,2,0),0)</f>
+        <v>554</v>
       </c>
       <c r="E209">
         <f t="shared" si="9"/>
-        <v>220</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+        <v>700</v>
+      </c>
+      <c r="F209" t="str">
+        <f t="shared" si="8"/>
+        <v>{FREQUENCY/554,700},</v>
+      </c>
+      <c r="G209" t="str">
+        <f>VLOOKUP(A209,J:L,3,0)</f>
+        <v>D2#</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>0</v>
       </c>
@@ -4907,20 +6650,28 @@
       </c>
       <c r="C210">
         <f>IF(MOD(SUM($B$1:B209),16)=0,SUM($B$1:B209)/16+1,"")</f>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D210">
-        <f t="shared" si="8"/>
-        <v>50</v>
+        <f>ROUND(VLOOKUP(A210,J:K,2,0),0)</f>
+        <v>0</v>
       </c>
       <c r="E210">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="F210" t="str">
+        <f t="shared" si="8"/>
+        <v>{0,100},</v>
+      </c>
+      <c r="G210">
+        <f>VLOOKUP(A210,J:L,3,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B211">
         <v>1</v>
@@ -4930,17 +6681,25 @@
         <v/>
       </c>
       <c r="D211">
-        <f t="shared" si="8"/>
-        <v>25</v>
+        <f>ROUND(VLOOKUP(A211,J:K,2,0),0)</f>
+        <v>220</v>
       </c>
       <c r="E211">
         <f t="shared" si="9"/>
-        <v>220</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F211" t="str">
+        <f t="shared" si="8"/>
+        <v>{FREQUENCY/220,50},</v>
+      </c>
+      <c r="G211" t="str">
+        <f>VLOOKUP(A211,J:L,3,0)</f>
+        <v>B1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B212">
         <v>3</v>
@@ -4950,17 +6709,25 @@
         <v/>
       </c>
       <c r="D212">
-        <f t="shared" si="8"/>
-        <v>75</v>
+        <f>ROUND(VLOOKUP(A212,J:K,2,0),0)</f>
+        <v>208</v>
       </c>
       <c r="E212">
         <f t="shared" si="9"/>
-        <v>208</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F212" t="str">
+        <f t="shared" si="8"/>
+        <v>{FREQUENCY/208,150},</v>
+      </c>
+      <c r="G212" t="str">
+        <f>VLOOKUP(A212,J:L,3,0)</f>
+        <v>A1#</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B213">
         <v>2</v>
@@ -4970,15 +6737,23 @@
         <v/>
       </c>
       <c r="D213">
-        <f t="shared" si="8"/>
-        <v>50</v>
+        <f>ROUND(VLOOKUP(A213,J:K,2,0),0)</f>
+        <v>220</v>
       </c>
       <c r="E213">
         <f t="shared" si="9"/>
-        <v>220</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="F213" t="str">
+        <f t="shared" si="8"/>
+        <v>{FREQUENCY/220,100},</v>
+      </c>
+      <c r="G213" t="str">
+        <f>VLOOKUP(A213,J:L,3,0)</f>
+        <v>B1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>0</v>
       </c>
@@ -4990,17 +6765,25 @@
         <v/>
       </c>
       <c r="D214">
-        <f t="shared" si="8"/>
-        <v>50</v>
+        <f>ROUND(VLOOKUP(A214,J:K,2,0),0)</f>
+        <v>0</v>
       </c>
       <c r="E214">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="F214" t="str">
+        <f t="shared" si="8"/>
+        <v>{0,100},</v>
+      </c>
+      <c r="G214">
+        <f>VLOOKUP(A214,J:L,3,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B215">
         <v>1</v>
@@ -5010,17 +6793,25 @@
         <v/>
       </c>
       <c r="D215">
-        <f t="shared" si="8"/>
-        <v>25</v>
+        <f>ROUND(VLOOKUP(A215,J:K,2,0),0)</f>
+        <v>220</v>
       </c>
       <c r="E215">
         <f t="shared" si="9"/>
-        <v>220</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F215" t="str">
+        <f t="shared" si="8"/>
+        <v>{FREQUENCY/220,50},</v>
+      </c>
+      <c r="G215" t="str">
+        <f>VLOOKUP(A215,J:L,3,0)</f>
+        <v>B1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B216">
         <v>3</v>
@@ -5030,17 +6821,25 @@
         <v/>
       </c>
       <c r="D216">
-        <f t="shared" si="8"/>
-        <v>75</v>
+        <f>ROUND(VLOOKUP(A216,J:K,2,0),0)</f>
+        <v>208</v>
       </c>
       <c r="E216">
         <f t="shared" si="9"/>
-        <v>208</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F216" t="str">
+        <f t="shared" si="8"/>
+        <v>{FREQUENCY/208,150},</v>
+      </c>
+      <c r="G216" t="str">
+        <f>VLOOKUP(A216,J:L,3,0)</f>
+        <v>A1#</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B217">
         <v>2</v>
@@ -5050,15 +6849,23 @@
         <v/>
       </c>
       <c r="D217">
-        <f t="shared" si="8"/>
-        <v>50</v>
+        <f>ROUND(VLOOKUP(A217,J:K,2,0),0)</f>
+        <v>220</v>
       </c>
       <c r="E217">
         <f t="shared" si="9"/>
-        <v>220</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="F217" t="str">
+        <f t="shared" si="8"/>
+        <v>{FREQUENCY/220,100},</v>
+      </c>
+      <c r="G217" t="str">
+        <f>VLOOKUP(A217,J:L,3,0)</f>
+        <v>B1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>0</v>
       </c>
@@ -5067,20 +6874,28 @@
       </c>
       <c r="C218">
         <f>IF(MOD(SUM($B$1:B217),16)=0,SUM($B$1:B217)/16+1,"")</f>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D218">
-        <f t="shared" si="8"/>
-        <v>50</v>
+        <f>ROUND(VLOOKUP(A218,J:K,2,0),0)</f>
+        <v>0</v>
       </c>
       <c r="E218">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="F218" t="str">
+        <f t="shared" si="8"/>
+        <v>{0,100},</v>
+      </c>
+      <c r="G218">
+        <f>VLOOKUP(A218,J:L,3,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -5090,17 +6905,25 @@
         <v/>
       </c>
       <c r="D219">
-        <f t="shared" si="8"/>
-        <v>25</v>
+        <f>ROUND(VLOOKUP(A219,J:K,2,0),0)</f>
+        <v>220</v>
       </c>
       <c r="E219">
         <f t="shared" si="9"/>
-        <v>247</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F219" t="str">
+        <f t="shared" si="8"/>
+        <v>{FREQUENCY/220,50},</v>
+      </c>
+      <c r="G219" t="str">
+        <f>VLOOKUP(A219,J:L,3,0)</f>
+        <v>B1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B220">
         <v>3</v>
@@ -5110,17 +6933,25 @@
         <v/>
       </c>
       <c r="D220">
-        <f t="shared" si="8"/>
-        <v>75</v>
+        <f>ROUND(VLOOKUP(A220,J:K,2,0),0)</f>
+        <v>208</v>
       </c>
       <c r="E220">
         <f t="shared" si="9"/>
-        <v>233</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F220" t="str">
+        <f t="shared" si="8"/>
+        <v>{FREQUENCY/208,150},</v>
+      </c>
+      <c r="G220" t="str">
+        <f>VLOOKUP(A220,J:L,3,0)</f>
+        <v>A1#</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B221">
         <v>2</v>
@@ -5130,15 +6961,23 @@
         <v/>
       </c>
       <c r="D221">
-        <f t="shared" si="8"/>
-        <v>50</v>
+        <f>ROUND(VLOOKUP(A221,J:K,2,0),0)</f>
+        <v>220</v>
       </c>
       <c r="E221">
         <f t="shared" si="9"/>
-        <v>247</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="F221" t="str">
+        <f t="shared" si="8"/>
+        <v>{FREQUENCY/220,100},</v>
+      </c>
+      <c r="G221" t="str">
+        <f>VLOOKUP(A221,J:L,3,0)</f>
+        <v>B1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>0</v>
       </c>
@@ -5150,17 +6989,25 @@
         <v/>
       </c>
       <c r="D222">
-        <f t="shared" si="8"/>
-        <v>50</v>
+        <f>ROUND(VLOOKUP(A222,J:K,2,0),0)</f>
+        <v>0</v>
       </c>
       <c r="E222">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="F222" t="str">
+        <f t="shared" si="8"/>
+        <v>{0,100},</v>
+      </c>
+      <c r="G222">
+        <f>VLOOKUP(A222,J:L,3,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B223">
         <v>1</v>
@@ -5170,17 +7017,25 @@
         <v/>
       </c>
       <c r="D223">
-        <f t="shared" si="8"/>
-        <v>25</v>
+        <f>ROUND(VLOOKUP(A223,J:K,2,0),0)</f>
+        <v>220</v>
       </c>
       <c r="E223">
         <f t="shared" si="9"/>
-        <v>247</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F223" t="str">
+        <f t="shared" si="8"/>
+        <v>{FREQUENCY/220,50},</v>
+      </c>
+      <c r="G223" t="str">
+        <f>VLOOKUP(A223,J:L,3,0)</f>
+        <v>B1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B224">
         <v>3</v>
@@ -5190,17 +7045,25 @@
         <v/>
       </c>
       <c r="D224">
-        <f t="shared" si="8"/>
-        <v>75</v>
+        <f>ROUND(VLOOKUP(A224,J:K,2,0),0)</f>
+        <v>208</v>
       </c>
       <c r="E224">
         <f t="shared" si="9"/>
-        <v>233</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F224" t="str">
+        <f t="shared" si="8"/>
+        <v>{FREQUENCY/208,150},</v>
+      </c>
+      <c r="G224" t="str">
+        <f>VLOOKUP(A224,J:L,3,0)</f>
+        <v>A1#</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B225">
         <v>2</v>
@@ -5210,37 +7073,53 @@
         <v/>
       </c>
       <c r="D225">
-        <f t="shared" si="8"/>
-        <v>50</v>
+        <f>ROUND(VLOOKUP(A225,J:K,2,0),0)</f>
+        <v>220</v>
       </c>
       <c r="E225">
         <f t="shared" si="9"/>
-        <v>247</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="F225" t="str">
+        <f t="shared" si="8"/>
+        <v>{FREQUENCY/220,100},</v>
+      </c>
+      <c r="G225" t="str">
+        <f>VLOOKUP(A225,J:L,3,0)</f>
+        <v>B1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>0</v>
       </c>
       <c r="B226">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C226">
         <f>IF(MOD(SUM($B$1:B225),16)=0,SUM($B$1:B225)/16+1,"")</f>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D226">
-        <f t="shared" si="8"/>
-        <v>25</v>
+        <f>ROUND(VLOOKUP(A226,J:K,2,0),0)</f>
+        <v>0</v>
       </c>
       <c r="E226">
         <f t="shared" si="9"/>
-        <v>294</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="F226" t="str">
+        <f t="shared" si="8"/>
+        <v>{0,100},</v>
+      </c>
+      <c r="G226">
+        <f>VLOOKUP(A226,J:L,3,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B227">
         <v>1</v>
@@ -5250,71 +7129,327 @@
         <v/>
       </c>
       <c r="D227">
-        <f t="shared" si="8"/>
-        <v>25</v>
+        <f>ROUND(VLOOKUP(A227,J:K,2,0),0)</f>
+        <v>247</v>
       </c>
       <c r="E227">
         <f t="shared" si="9"/>
-        <v>330</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F227" t="str">
+        <f t="shared" si="8"/>
+        <v>{FREQUENCY/247,50},</v>
+      </c>
+      <c r="G227" t="str">
+        <f>VLOOKUP(A227,J:L,3,0)</f>
+        <v>C1#</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B228">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C228" t="str">
         <f>IF(MOD(SUM($B$1:B227),16)=0,SUM($B$1:B227)/16+1,"")</f>
         <v/>
       </c>
       <c r="D228">
-        <f t="shared" si="8"/>
-        <v>25</v>
+        <f>ROUND(VLOOKUP(A228,J:K,2,0),0)</f>
+        <v>233</v>
       </c>
       <c r="E228">
         <f t="shared" si="9"/>
-        <v>294</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F228" t="str">
+        <f t="shared" si="8"/>
+        <v>{FREQUENCY/233,150},</v>
+      </c>
+      <c r="G228" t="str">
+        <f>VLOOKUP(A228,J:L,3,0)</f>
+        <v>C1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B229">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C229" t="str">
         <f>IF(MOD(SUM($B$1:B228),16)=0,SUM($B$1:B228)/16+1,"")</f>
         <v/>
       </c>
       <c r="D229">
-        <f t="shared" si="8"/>
-        <v>325</v>
+        <f>ROUND(VLOOKUP(A229,J:K,2,0),0)</f>
+        <v>247</v>
       </c>
       <c r="E229">
         <f t="shared" si="9"/>
-        <v>277</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="F229" t="str">
+        <f t="shared" si="8"/>
+        <v>{FREQUENCY/247,100},</v>
+      </c>
+      <c r="G229" t="str">
+        <f>VLOOKUP(A229,J:L,3,0)</f>
+        <v>C1#</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>0</v>
       </c>
       <c r="B230">
-        <v>16</v>
-      </c>
-      <c r="C230">
+        <v>2</v>
+      </c>
+      <c r="C230" t="str">
         <f>IF(MOD(SUM($B$1:B229),16)=0,SUM($B$1:B229)/16+1,"")</f>
-        <v>44</v>
+        <v/>
       </c>
       <c r="D230">
-        <f t="shared" si="8"/>
-        <v>400</v>
+        <f>ROUND(VLOOKUP(A230,J:K,2,0),0)</f>
+        <v>0</v>
       </c>
       <c r="E230">
         <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="F230" t="str">
+        <f t="shared" si="8"/>
+        <v>{0,100},</v>
+      </c>
+      <c r="G230">
+        <f>VLOOKUP(A230,J:L,3,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>28</v>
+      </c>
+      <c r="B231">
+        <v>1</v>
+      </c>
+      <c r="C231" t="str">
+        <f>IF(MOD(SUM($B$1:B230),16)=0,SUM($B$1:B230)/16+1,"")</f>
+        <v/>
+      </c>
+      <c r="D231">
+        <f>ROUND(VLOOKUP(A231,J:K,2,0),0)</f>
+        <v>247</v>
+      </c>
+      <c r="E231">
+        <f t="shared" si="9"/>
+        <v>50</v>
+      </c>
+      <c r="F231" t="str">
+        <f t="shared" si="8"/>
+        <v>{FREQUENCY/247,50},</v>
+      </c>
+      <c r="G231" t="str">
+        <f>VLOOKUP(A231,J:L,3,0)</f>
+        <v>C1#</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>22</v>
+      </c>
+      <c r="B232">
+        <v>3</v>
+      </c>
+      <c r="C232" t="str">
+        <f>IF(MOD(SUM($B$1:B231),16)=0,SUM($B$1:B231)/16+1,"")</f>
+        <v/>
+      </c>
+      <c r="D232">
+        <f>ROUND(VLOOKUP(A232,J:K,2,0),0)</f>
+        <v>233</v>
+      </c>
+      <c r="E232">
+        <f t="shared" si="9"/>
+        <v>150</v>
+      </c>
+      <c r="F232" t="str">
+        <f t="shared" si="8"/>
+        <v>{FREQUENCY/233,150},</v>
+      </c>
+      <c r="G232" t="str">
+        <f>VLOOKUP(A232,J:L,3,0)</f>
+        <v>C1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>28</v>
+      </c>
+      <c r="B233">
+        <v>2</v>
+      </c>
+      <c r="C233" t="str">
+        <f>IF(MOD(SUM($B$1:B232),16)=0,SUM($B$1:B232)/16+1,"")</f>
+        <v/>
+      </c>
+      <c r="D233">
+        <f>ROUND(VLOOKUP(A233,J:K,2,0),0)</f>
+        <v>247</v>
+      </c>
+      <c r="E233">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="F233" t="str">
+        <f t="shared" si="8"/>
+        <v>{FREQUENCY/247,100},</v>
+      </c>
+      <c r="G233" t="str">
+        <f>VLOOKUP(A233,J:L,3,0)</f>
+        <v>C1#</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>26</v>
+      </c>
+      <c r="B234">
+        <v>1</v>
+      </c>
+      <c r="C234">
+        <f>IF(MOD(SUM($B$1:B233),16)=0,SUM($B$1:B233)/16+1,"")</f>
+        <v>43</v>
+      </c>
+      <c r="D234">
+        <f>ROUND(VLOOKUP(A234,J:K,2,0),0)</f>
+        <v>294</v>
+      </c>
+      <c r="E234">
+        <f t="shared" si="9"/>
+        <v>50</v>
+      </c>
+      <c r="F234" t="str">
+        <f t="shared" si="8"/>
+        <v>{FREQUENCY/294,50},</v>
+      </c>
+      <c r="G234" t="str">
+        <f>VLOOKUP(A234,J:L,3,0)</f>
+        <v>E1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>30</v>
+      </c>
+      <c r="B235">
+        <v>1</v>
+      </c>
+      <c r="C235" t="str">
+        <f>IF(MOD(SUM($B$1:B234),16)=0,SUM($B$1:B234)/16+1,"")</f>
+        <v/>
+      </c>
+      <c r="D235">
+        <f>ROUND(VLOOKUP(A235,J:K,2,0),0)</f>
+        <v>330</v>
+      </c>
+      <c r="E235">
+        <f t="shared" si="9"/>
+        <v>50</v>
+      </c>
+      <c r="F235" t="str">
+        <f t="shared" si="8"/>
+        <v>{FREQUENCY/330,50},</v>
+      </c>
+      <c r="G235" t="str">
+        <f>VLOOKUP(A235,J:L,3,0)</f>
+        <v>F1#</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>26</v>
+      </c>
+      <c r="B236">
+        <v>1</v>
+      </c>
+      <c r="C236" t="str">
+        <f>IF(MOD(SUM($B$1:B235),16)=0,SUM($B$1:B235)/16+1,"")</f>
+        <v/>
+      </c>
+      <c r="D236">
+        <f>ROUND(VLOOKUP(A236,J:K,2,0),0)</f>
+        <v>294</v>
+      </c>
+      <c r="E236">
+        <f t="shared" si="9"/>
+        <v>50</v>
+      </c>
+      <c r="F236" t="str">
+        <f t="shared" si="8"/>
+        <v>{FREQUENCY/294,50},</v>
+      </c>
+      <c r="G236" t="str">
+        <f>VLOOKUP(A236,J:L,3,0)</f>
+        <v>E1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>16</v>
+      </c>
+      <c r="B237">
+        <v>13</v>
+      </c>
+      <c r="C237" t="str">
+        <f>IF(MOD(SUM($B$1:B236),16)=0,SUM($B$1:B236)/16+1,"")</f>
+        <v/>
+      </c>
+      <c r="D237">
+        <f>ROUND(VLOOKUP(A237,J:K,2,0),0)</f>
+        <v>277</v>
+      </c>
+      <c r="E237">
+        <f t="shared" si="9"/>
+        <v>650</v>
+      </c>
+      <c r="F237" t="str">
+        <f t="shared" si="8"/>
+        <v>{FREQUENCY/277,650},</v>
+      </c>
+      <c r="G237" t="str">
+        <f>VLOOKUP(A237,J:L,3,0)</f>
+        <v>D1#</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>0</v>
+      </c>
+      <c r="B238">
+        <v>16</v>
+      </c>
+      <c r="C238">
+        <f>IF(MOD(SUM($B$1:B237),16)=0,SUM($B$1:B237)/16+1,"")</f>
+        <v>44</v>
+      </c>
+      <c r="D238">
+        <f>ROUND(VLOOKUP(A238,J:K,2,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E238">
+        <f t="shared" si="9"/>
+        <v>800</v>
+      </c>
+      <c r="F238" t="str">
+        <f t="shared" si="8"/>
+        <v>{0,800},</v>
+      </c>
+      <c r="G238">
+        <f>VLOOKUP(A238,J:L,3,0)</f>
         <v>0</v>
       </c>
     </row>
